--- a/template.xlsx
+++ b/template.xlsx
@@ -1,47 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsmith\AppData\Roaming\pol\fy.lsmith\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weihao Zeng\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3439A9EE-2BF3-40B9-A72E-EEF211285D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="37" state="hidden" r:id="rId1"/>
-    <sheet name="Measurement Point" sheetId="20" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="38" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_1__123Graph_ACHART_1" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_1__123Graph_ACHART_1" hidden="1">#REF!</definedName>
-    <definedName name="_2__123Graph_BCHART_1" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_2__123Graph_BCHART_1" hidden="1">#REF!</definedName>
-    <definedName name="_3__123Graph_CCHART_1" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_3__123Graph_CCHART_1" hidden="1">#REF!</definedName>
-    <definedName name="_4__123Graph_DCHART_1" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_4__123Graph_DCHART_1" hidden="1">#REF!</definedName>
-    <definedName name="_5__123Graph_ECHART_1" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_5__123Graph_ECHART_1" hidden="1">#REF!</definedName>
-    <definedName name="_6__123Graph_XCHART_1" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_6__123Graph_XCHART_1" hidden="1">#REF!</definedName>
-    <definedName name="Blacnk" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="Blacnk" hidden="1">#REF!</definedName>
-    <definedName name="Blank" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="Blank" hidden="1">#REF!</definedName>
     <definedName name="Example" hidden="1">#REF!</definedName>
-    <definedName name="one" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="one" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Measurement Point'!$A$1:$X$55</definedName>
-    <definedName name="three" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="three" hidden="1">#REF!</definedName>
-    <definedName name="two" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="two" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1104,6 +1105,7 @@
         <sz val="10"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公式错误，应乘以</t>
@@ -1127,14 +1129,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1255,16 +1257,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1305,7 +1300,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1329,6 +1324,20 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2048,529 +2057,472 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2587,10 +2539,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2601,42 +2553,42 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="57" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="57" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="57" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="57" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2646,7 +2598,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2676,9 +2628,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="標準_IL Sunroof Fixture Gap Check" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_IL Sunroof Fixture Gap Check" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2710,14 +2662,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1691" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F608F47E-A2F1-4077-BC0B-86B6FE1C51A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9372600" y="1771650"/>
+          <a:off x="9817100" y="1768475"/>
           <a:ext cx="95250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2758,14 +2716,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1692" name="Line 2"/>
+        <xdr:cNvPr id="3" name="Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDDA6F0-ABC1-4EEE-8A8B-E787261D5BAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3333750" y="8058150"/>
+          <a:off x="3463925" y="8108950"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2806,14 +2770,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1693" name="Line 3"/>
+        <xdr:cNvPr id="4" name="Line 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AA023C-FD11-4C73-B1E1-5A584938BDDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3333750" y="8020050"/>
+          <a:off x="3463925" y="8070850"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2854,14 +2824,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1694" name="Line 4"/>
+        <xdr:cNvPr id="5" name="Line 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124A3EDA-7D2B-4BA3-94DF-F457FD44E47B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10563225" y="3990975"/>
+          <a:off x="11064875" y="4022725"/>
           <a:ext cx="95250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2898,18 +2874,24 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1695" name="Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422A598D-CF97-464F-9FDF-A121A54F7874}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7324725" y="6019800"/>
+          <a:off x="7670800" y="6070600"/>
           <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2953,18 +2935,24 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1696" name="Rectangle 6"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393075AE-DFC8-47D7-BB39-A7B0D4AA10E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7753350" y="6019800"/>
+          <a:off x="8099425" y="6070600"/>
           <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3008,18 +2996,24 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1697" name="Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B40B02-5B3C-4120-9BA4-8322650ED6E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8143875" y="6019800"/>
+          <a:off x="8518525" y="6070600"/>
           <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3063,18 +3057,24 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1698" name="Rectangle 8"/>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8BC5A39-40EE-4BDC-9C77-20989151D100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8353425" y="6019800"/>
+          <a:off x="8728075" y="6070600"/>
           <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3122,14 +3122,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1699" name="Rectangle 9"/>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61AB33F2-FBB8-47B8-AFF7-AB46DEE7F395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7038975" y="6096000"/>
+          <a:off x="7356475" y="6146800"/>
           <a:ext cx="0" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3173,18 +3179,24 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1700" name="Rectangle 10"/>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E93A65-CEFA-44C3-8F95-BBE33C2F0CA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7210425" y="6019800"/>
+          <a:off x="7556500" y="6070600"/>
           <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3228,18 +3240,24 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1701" name="Rectangle 11"/>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB09A0B3-00DC-4134-815F-0AEE459F4638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8058150" y="6019800"/>
+          <a:off x="8432800" y="6070600"/>
           <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3283,18 +3301,24 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1702" name="Rectangle 12"/>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24DAFF8B-AA4D-4A16-BAA0-4759011062F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8248650" y="6019800"/>
+          <a:off x="8623300" y="6070600"/>
           <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3338,18 +3362,24 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1703" name="Rectangle 13"/>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5263D44C-7FFD-46B9-82F7-B5AC8279D148}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7429500" y="6086475"/>
+          <a:off x="7775575" y="6137275"/>
           <a:ext cx="0" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3393,18 +3423,24 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1704" name="Rectangle 14"/>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEECB922-F026-40D2-897D-EEF17B82FCC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7972425" y="5981700"/>
+          <a:off x="8347075" y="6032500"/>
           <a:ext cx="0" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3448,18 +3484,24 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1705" name="Rectangle 15"/>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9A5A64-4F24-4D9C-A67A-FDF65A45123A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6848475" y="5934075"/>
+          <a:off x="7165975" y="5984875"/>
           <a:ext cx="0" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3503,18 +3545,24 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1706" name="Rectangle 16"/>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84F07A0-ED1A-4B51-9F69-2A186A245D5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7505700" y="5934075"/>
+          <a:off x="7851775" y="5984875"/>
           <a:ext cx="0" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3557,19 +3605,25 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1707" name="Rectangle 17"/>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9EFFD7-C552-472B-988D-269526CECF14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7696200" y="5905500"/>
+          <a:off x="8042275" y="5956300"/>
           <a:ext cx="0" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3612,19 +3666,25 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1708" name="Rectangle 18"/>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472624DE-B9A6-41E2-AED0-24D3D6CDE418}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8401050" y="5905500"/>
+          <a:off x="8804275" y="5956300"/>
           <a:ext cx="0" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3668,18 +3728,24 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1709" name="Rectangle 19"/>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C049970A-BFAB-4879-A437-7B47C193DCDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7581900" y="6010275"/>
+          <a:off x="7927975" y="6061075"/>
           <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3723,18 +3789,24 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1710" name="Rectangle 20"/>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F97265-9868-41FA-B68A-6BBD219F5067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7400925" y="7124700"/>
+          <a:off x="7747000" y="7175500"/>
           <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3778,18 +3850,24 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1711" name="Rectangle 21"/>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D9805C-45DF-4ECD-B7BF-56BE7DADA432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7858125" y="7124700"/>
+          <a:off x="8232775" y="7175500"/>
           <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3832,19 +3910,25 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1712" name="Rectangle 22"/>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C770C77-AB45-4FD6-82FD-20786132612C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7620000" y="7115175"/>
+          <a:off x="7966075" y="7165975"/>
           <a:ext cx="0" cy="104775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3887,19 +3971,25 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1713" name="Rectangle 23"/>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{786DAC45-378E-483D-9C38-A1103C56C4B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8058150" y="7115175"/>
+          <a:off x="8432800" y="7165975"/>
           <a:ext cx="0" cy="104775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3943,18 +4033,24 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1714" name="Rectangle 24"/>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAD3541-A489-45AF-B794-796C230E767E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7715250" y="7115175"/>
+          <a:off x="8061325" y="7165975"/>
           <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3997,19 +4093,25 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1715" name="Rectangle 25"/>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{350279ED-6D83-4A11-899B-80AB449E7E02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7334250" y="7038975"/>
+          <a:off x="7680325" y="7089775"/>
           <a:ext cx="0" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4052,19 +4154,25 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1716" name="Rectangle 26"/>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75703319-6F3C-4EEE-A9C7-D8F30CC6CD50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8143875" y="7038975"/>
+          <a:off x="8518525" y="7089775"/>
           <a:ext cx="0" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4108,18 +4216,24 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1717" name="Rectangle 27"/>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0A60A4-FFCD-4B2F-A38B-FF1FBE3FC943}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1457325" y="6734175"/>
+          <a:off x="1520825" y="6784975"/>
           <a:ext cx="0" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4163,18 +4277,24 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1718" name="Rectangle 28"/>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4B0DF3-4F8D-4CDF-BA01-425464B2349C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1847850" y="6734175"/>
+          <a:off x="1936750" y="6784975"/>
           <a:ext cx="0" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4218,18 +4338,24 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1719" name="Rectangle 29"/>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E0C1C4B-612A-452F-8CC6-B580B02862FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2028825" y="6734175"/>
+          <a:off x="2117725" y="6784975"/>
           <a:ext cx="0" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4272,14 +4398,20 @@
     <xdr:ext cx="64120" cy="147476"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Rectangle 30"/>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7FB356-B85A-4E46-B4E5-6D813A0AE805}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1571625" y="6734175"/>
+          <a:off x="1635125" y="6784975"/>
           <a:ext cx="64120" cy="147476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4327,19 +4459,25 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1721" name="Rectangle 31"/>
+        <xdr:cNvPr id="32" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B574E7E-4060-493D-B642-5829F623F9FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2247900" y="6724650"/>
+          <a:off x="2336800" y="6775450"/>
           <a:ext cx="133350" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4383,18 +4521,24 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1722" name="Rectangle 32"/>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F817D6-DD14-4A99-B12F-C0A6312292A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1914525" y="6734175"/>
+          <a:off x="2003425" y="6784975"/>
           <a:ext cx="0" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4437,19 +4581,25 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1723" name="Rectangle 33"/>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E006AE-A494-49E8-B618-303835F71EC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1400175" y="6467475"/>
+          <a:off x="1463675" y="6518275"/>
           <a:ext cx="0" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4492,19 +4642,25 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1724" name="Rectangle 34"/>
+        <xdr:cNvPr id="35" name="Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2485075E-C43F-4CE3-8161-87A92E86C438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2305050" y="6467475"/>
+          <a:off x="2393950" y="6518275"/>
           <a:ext cx="0" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4548,18 +4704,24 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1725" name="Rectangle 35"/>
+        <xdr:cNvPr id="36" name="Rectangle 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC655CED-DB4D-491A-9146-D44A5AC3C377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1457325" y="6743700"/>
+          <a:off x="1520825" y="6794500"/>
           <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4603,18 +4765,24 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1726" name="Rectangle 36"/>
+        <xdr:cNvPr id="37" name="Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C228871-7D96-4EA9-8503-2E1E7AA785CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1704975" y="6743700"/>
+          <a:off x="1768475" y="6794500"/>
           <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4657,14 +4825,20 @@
     <xdr:ext cx="35266" cy="162160"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rectangle 37"/>
+        <xdr:cNvPr id="38" name="Rectangle 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1730068E-6FDA-475E-AEE0-AE67B9E7992E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2028825" y="6753225"/>
+          <a:off x="2117725" y="6804025"/>
           <a:ext cx="35266" cy="162160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4713,18 +4887,24 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1728" name="Rectangle 38"/>
+        <xdr:cNvPr id="39" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95CD321C-D3A6-45B6-A647-77D5E4F81978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1571625" y="6743700"/>
+          <a:off x="1635125" y="6794500"/>
           <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4767,19 +4947,25 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1729" name="Rectangle 39"/>
+        <xdr:cNvPr id="40" name="Rectangle 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6326E118-72CC-4C13-8E84-872DD0ED6633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1819275" y="6734175"/>
+          <a:off x="1882775" y="6784975"/>
           <a:ext cx="0" cy="104775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4822,19 +5008,25 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1730" name="Rectangle 40"/>
+        <xdr:cNvPr id="41" name="Rectangle 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64584B0-A2CA-4FA3-AAC0-F9F0E0BA8EDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2257425" y="6734175"/>
+          <a:off x="2346325" y="6784975"/>
           <a:ext cx="0" cy="104775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4878,18 +5070,24 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1731" name="Rectangle 41"/>
+        <xdr:cNvPr id="42" name="Rectangle 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E038AFC-AF93-442E-A7CD-E9F4856036B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1914525" y="6734175"/>
+          <a:off x="2003425" y="6784975"/>
           <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4932,19 +5130,25 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1732" name="Rectangle 42"/>
+        <xdr:cNvPr id="43" name="Rectangle 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC210D26-B23C-442C-BC92-23109EE9A79A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1400175" y="6657975"/>
+          <a:off x="1463675" y="6708775"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4987,19 +5191,25 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1733" name="Rectangle 43"/>
+        <xdr:cNvPr id="44" name="Rectangle 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580DBC06-F169-49CB-B3A1-D7E96130CC58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2305050" y="6657975"/>
+          <a:off x="2393950" y="6708775"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5043,18 +5253,24 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1734" name="Rectangle 44"/>
+        <xdr:cNvPr id="45" name="Rectangle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71B2A62-0FDA-4773-804B-D4EBE30C5B59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7038975" y="6010275"/>
+          <a:off x="7356475" y="6061075"/>
           <a:ext cx="0" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5098,18 +5314,24 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1735" name="Rectangle 45"/>
+        <xdr:cNvPr id="46" name="Rectangle 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5111243B-ADF3-4A93-BEA9-94DFF5E8E995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7448550" y="6010275"/>
+          <a:off x="7794625" y="6061075"/>
           <a:ext cx="0" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5153,18 +5375,24 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1736" name="Rectangle 46"/>
+        <xdr:cNvPr id="47" name="Rectangle 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACEF8DE-ED57-4889-88DA-B479F2265180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="6010275"/>
+          <a:off x="8328025" y="6061075"/>
           <a:ext cx="0" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5208,18 +5436,24 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1737" name="Rectangle 47"/>
+        <xdr:cNvPr id="48" name="Rectangle 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF71E6A9-E644-4CDA-A5CF-DFEBEE003B6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8353425" y="6010275"/>
+          <a:off x="8728075" y="6061075"/>
           <a:ext cx="0" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5263,18 +5497,24 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1738" name="Rectangle 48"/>
+        <xdr:cNvPr id="49" name="Rectangle 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BFF3CDB-3670-4A88-BFC1-8B63B19EF0BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8553450" y="6010275"/>
+          <a:off x="8956675" y="6061075"/>
           <a:ext cx="0" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5318,18 +5558,24 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1739" name="Rectangle 49"/>
+        <xdr:cNvPr id="50" name="Rectangle 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37275E9A-5D18-4D8C-8F5B-3524FFF48D68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7334250" y="6010275"/>
+          <a:off x="7680325" y="6061075"/>
           <a:ext cx="0" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5373,18 +5619,24 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1740" name="Rectangle 50"/>
+        <xdr:cNvPr id="51" name="Rectangle 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2498757-6C32-426A-A738-3A9538B3B29C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8286750" y="6010275"/>
+          <a:off x="8661400" y="6061075"/>
           <a:ext cx="0" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5428,18 +5680,24 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1741" name="Rectangle 51"/>
+        <xdr:cNvPr id="52" name="Rectangle 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF946E8D-EB4C-4570-8EE2-71E61E23B965}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8448675" y="6010275"/>
+          <a:off x="8851900" y="6061075"/>
           <a:ext cx="0" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5483,18 +5741,24 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1742" name="Rectangle 52"/>
+        <xdr:cNvPr id="53" name="Rectangle 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D8469EC-5418-4011-849D-8DCE3E743506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7562850" y="6086475"/>
+          <a:off x="7908925" y="6137275"/>
           <a:ext cx="0" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5537,19 +5801,25 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1743" name="Rectangle 53"/>
+        <xdr:cNvPr id="54" name="Rectangle 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0542E448-707A-43A9-9AE0-EAAE8CBC475B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7696200" y="5934075"/>
+          <a:off x="8042275" y="5984875"/>
           <a:ext cx="0" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5593,18 +5863,24 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1744" name="Rectangle 54"/>
+        <xdr:cNvPr id="55" name="Rectangle 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A14CD3-515A-4E62-B357-09F5DC4E8520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8172450" y="5972175"/>
+          <a:off x="8547100" y="6022975"/>
           <a:ext cx="0" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5648,18 +5924,24 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1745" name="Rectangle 55"/>
+        <xdr:cNvPr id="56" name="Rectangle 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC11BFF0-B8EB-4CBB-900B-A602A6B3B4C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6981825" y="5905500"/>
+          <a:off x="7299325" y="5956300"/>
           <a:ext cx="0" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5703,18 +5985,24 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1746" name="Rectangle 56"/>
+        <xdr:cNvPr id="57" name="Rectangle 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385279C7-4FCF-41CB-BED0-81AD61BAFCFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7620000" y="5905500"/>
+          <a:off x="7966075" y="5956300"/>
           <a:ext cx="0" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5758,18 +6046,24 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1747" name="Rectangle 57"/>
+        <xdr:cNvPr id="58" name="Rectangle 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AABEDF0-0A0F-4144-B6E4-45212EF99FFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7905750" y="5905500"/>
+          <a:off x="8280400" y="5956300"/>
           <a:ext cx="0" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5813,18 +6107,24 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1748" name="Rectangle 58"/>
+        <xdr:cNvPr id="59" name="Rectangle 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81863959-55D7-4334-B9EA-39A18B0D7D4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8610600" y="5905500"/>
+          <a:off x="9013825" y="5956300"/>
           <a:ext cx="0" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5868,18 +6168,24 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1749" name="Rectangle 59"/>
+        <xdr:cNvPr id="60" name="Rectangle 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{346C5B12-E962-47BD-90E4-5531DA292067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7781925" y="5981700"/>
+          <a:off x="8128000" y="6032500"/>
           <a:ext cx="0" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5927,14 +6233,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1750" name="Line 60"/>
+        <xdr:cNvPr id="61" name="Line 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2499D82A-198A-4E6C-8027-498F8E33EA72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6143625" y="1771650"/>
+          <a:off x="6432550" y="1768475"/>
           <a:ext cx="95250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5975,14 +6287,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1751" name="Line 61"/>
+        <xdr:cNvPr id="62" name="Line 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68890D1B-90C7-49A3-AB77-E37D0F4A0580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2847975" y="1771650"/>
+          <a:off x="2978150" y="1768475"/>
           <a:ext cx="95250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6019,19 +6337,25 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Rectangle 62"/>
+        <xdr:cNvPr id="63" name="Rectangle 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6BDD01-2A3C-462B-8463-D15414EF62FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="657225" y="6686550"/>
-          <a:ext cx="371475" cy="171450"/>
+          <a:off x="663575" y="6737350"/>
+          <a:ext cx="400050" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6076,14 +6400,20 @@
     <xdr:ext cx="81112" cy="298480"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Rectangle 63"/>
+        <xdr:cNvPr id="64" name="Rectangle 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDFD574-0F46-429C-B733-D7B8031978D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1200150" y="6562725"/>
+          <a:off x="1235075" y="6613525"/>
           <a:ext cx="81112" cy="298480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6130,14 +6460,20 @@
     <xdr:ext cx="81112" cy="298480"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Rectangle 64"/>
+        <xdr:cNvPr id="65" name="Rectangle 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08B25BC-CE7C-4E86-9E45-0C16BB1030A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2200275" y="6543675"/>
+          <a:off x="2289175" y="6594475"/>
           <a:ext cx="81112" cy="298480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6189,14 +6525,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1755" name="Line 65"/>
+        <xdr:cNvPr id="66" name="Line 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6E65E0-50A7-478D-B12D-7607052DF52C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1066800" y="6724650"/>
+          <a:off x="1101725" y="6775450"/>
           <a:ext cx="57150" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6237,14 +6579,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1756" name="Line 66"/>
+        <xdr:cNvPr id="67" name="Line 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A00100-89BF-4F5B-8FCD-7CCFFCC5B1A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="1133475" y="6505575"/>
+          <a:off x="1168400" y="6556375"/>
           <a:ext cx="104775" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6285,15 +6633,21 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1757" name="Line 67"/>
+        <xdr:cNvPr id="68" name="Line 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC2D72C-8358-4C72-8258-43546C7FD3BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="1228725" y="6524625"/>
-          <a:ext cx="1095375" cy="0"/>
+          <a:off x="1263650" y="6575425"/>
+          <a:ext cx="1149350" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6328,14 +6682,20 @@
     <xdr:ext cx="44884" cy="112618"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="Rectangle 68"/>
+        <xdr:cNvPr id="69" name="Rectangle 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD3D7BC-1E4F-4F0B-9089-E82F7B471439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2114550" y="6600825"/>
+          <a:off x="2212975" y="6651625"/>
           <a:ext cx="44884" cy="112618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6383,14 +6743,20 @@
     <xdr:ext cx="44884" cy="112618"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Rectangle 69"/>
+        <xdr:cNvPr id="70" name="Rectangle 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F5D9C8-B322-4704-86CB-8B9346A6C891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1657350" y="6600825"/>
+          <a:off x="1720850" y="6651625"/>
           <a:ext cx="44884" cy="112618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6438,14 +6804,20 @@
     <xdr:ext cx="119713" cy="176972"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Rectangle 70"/>
+        <xdr:cNvPr id="71" name="Rectangle 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2396545-9D47-4BD3-B607-AB6C542F847F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1400175" y="6638925"/>
+          <a:off x="1463675" y="6689725"/>
           <a:ext cx="119713" cy="176972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6493,14 +6865,20 @@
     <xdr:ext cx="216200" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="Rectangle 71"/>
+        <xdr:cNvPr id="72" name="Rectangle 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92CB3A9-5001-4B97-B1F6-8115D78EC8F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1876425" y="6638925"/>
+          <a:off x="1965325" y="6689725"/>
           <a:ext cx="216200" cy="195601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6548,14 +6926,20 @@
     <xdr:ext cx="112800" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Rectangle 72"/>
+        <xdr:cNvPr id="73" name="Rectangle 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01FC6212-3602-43DD-AA54-2E848260D27D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1543050" y="6638925"/>
+          <a:off x="1616075" y="6689725"/>
           <a:ext cx="112800" cy="195601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6603,14 +6987,20 @@
     <xdr:ext cx="112800" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="Rectangle 73"/>
+        <xdr:cNvPr id="74" name="Rectangle 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32599B2-8706-4050-B85A-4AE5D5F1FA8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1295400" y="6638925"/>
+          <a:off x="1358900" y="6689725"/>
           <a:ext cx="112800" cy="195601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6658,14 +7048,20 @@
     <xdr:ext cx="84447" cy="197939"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Rectangle 74"/>
+        <xdr:cNvPr id="75" name="Rectangle 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B209DA3-66D6-40F1-A8C5-3182DE5B1D77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1762125" y="6619875"/>
+          <a:off x="1825625" y="6680200"/>
           <a:ext cx="84447" cy="197939"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6712,14 +7108,20 @@
     <xdr:ext cx="81112" cy="298480"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="Rectangle 75"/>
+        <xdr:cNvPr id="76" name="Rectangle 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51FCBBF-CF79-4F24-9517-B02642503D04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7010400" y="5838825"/>
+          <a:off x="7327900" y="5889625"/>
           <a:ext cx="81112" cy="298480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6767,18 +7169,24 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="Rectangle 76"/>
+        <xdr:cNvPr id="77" name="Rectangle 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{254B252A-0DA3-422A-95A8-F1EBBDF7AD66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7562850" y="5829300"/>
+          <a:off x="7908925" y="5880100"/>
           <a:ext cx="95250" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6823,14 +7231,20 @@
     <xdr:ext cx="81112" cy="298480"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="Rectangle 77"/>
+        <xdr:cNvPr id="78" name="Rectangle 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5AE8D14-E4B1-4F4E-BD94-79B6952D4026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7858125" y="5867400"/>
+          <a:off x="8232775" y="5918200"/>
           <a:ext cx="81112" cy="298480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6877,14 +7291,20 @@
     <xdr:ext cx="81112" cy="298480"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="Rectangle 78"/>
+        <xdr:cNvPr id="79" name="Rectangle 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8651EB1-244A-4772-9308-6CDCC7880A7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8562975" y="5876925"/>
+          <a:off x="8966200" y="5927725"/>
           <a:ext cx="81112" cy="298480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6931,14 +7351,20 @@
     <xdr:ext cx="235001" cy="345672"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="Rectangle 79"/>
+        <xdr:cNvPr id="80" name="Rectangle 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C915DA-9411-4F56-A9B2-D145A6CB8349}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6924675" y="5819775"/>
+          <a:off x="7242175" y="5870575"/>
           <a:ext cx="235001" cy="345672"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6985,14 +7411,20 @@
     <xdr:ext cx="93936" cy="345672"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="Rectangle 80"/>
+        <xdr:cNvPr id="81" name="Rectangle 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D91484D-053C-47C7-9146-0CD9BB104E49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8648700" y="5819775"/>
+          <a:off x="9051925" y="5870575"/>
           <a:ext cx="93936" cy="345672"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7044,14 +7476,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1771" name="Line 81"/>
+        <xdr:cNvPr id="82" name="Line 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8359B500-27AD-45FE-BA5D-8227FC0A3B53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6753225" y="6029325"/>
+          <a:off x="7070725" y="6080125"/>
           <a:ext cx="66675" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7092,14 +7530,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1772" name="Line 82"/>
+        <xdr:cNvPr id="83" name="Line 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E411AC8E-0071-47F3-A08A-4567EAF9AF69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="6829425" y="5800725"/>
+          <a:off x="7146925" y="5851525"/>
           <a:ext cx="95250" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7140,15 +7584,21 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1773" name="Line 83"/>
+        <xdr:cNvPr id="84" name="Line 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00524D43-BB9E-4FE8-981C-2AA35CA77A62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6915150" y="5810250"/>
-          <a:ext cx="1876425" cy="0"/>
+          <a:off x="7232650" y="5861050"/>
+          <a:ext cx="1962150" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7183,14 +7633,20 @@
     <xdr:ext cx="89832" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="Rectangle 84"/>
+        <xdr:cNvPr id="85" name="Rectangle 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199D6F38-D792-43C8-8719-06871C259B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8486775" y="5934075"/>
+          <a:off x="8880475" y="5984875"/>
           <a:ext cx="89832" cy="195601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7238,14 +7694,20 @@
     <xdr:ext cx="105798" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="Rectangle 85"/>
+        <xdr:cNvPr id="86" name="Rectangle 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB641F16-E174-42C6-9F25-C790A8BADC07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8286750" y="5934075"/>
+          <a:off x="8661400" y="5984875"/>
           <a:ext cx="105798" cy="195601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7293,14 +7755,20 @@
     <xdr:ext cx="216200" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="Rectangle 86"/>
+        <xdr:cNvPr id="87" name="Rectangle 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2842791E-3E20-470F-B33A-7DEE40AE861F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7915275" y="5934075"/>
+          <a:off x="8289925" y="5984875"/>
           <a:ext cx="216200" cy="195601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7348,14 +7816,20 @@
     <xdr:ext cx="130654" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="Rectangle 87"/>
+        <xdr:cNvPr id="88" name="Rectangle 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E965E5CF-81C2-4A6C-95C4-62D9FBF2590E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7400925" y="5934075"/>
+          <a:off x="7747000" y="5984875"/>
           <a:ext cx="130654" cy="195601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7403,14 +7877,20 @@
     <xdr:ext cx="122200" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="Rectangle 88"/>
+        <xdr:cNvPr id="89" name="Rectangle 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{823A7125-9FA2-4A35-981B-E79E8CF1ECAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7038975" y="5934075"/>
+          <a:off x="7356475" y="5984875"/>
           <a:ext cx="122200" cy="195601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7458,14 +7938,20 @@
     <xdr:ext cx="175506" cy="112618"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="Rectangle 89"/>
+        <xdr:cNvPr id="90" name="Rectangle 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD6B7AC-1E9E-4542-A4DF-3837955944B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7172325" y="6048375"/>
+          <a:off x="7489825" y="6108700"/>
           <a:ext cx="175506" cy="112618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7513,14 +7999,20 @@
     <xdr:ext cx="76944" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="Rectangle 90"/>
+        <xdr:cNvPr id="91" name="Rectangle 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1272FA49-1347-4746-A470-CA7A8FB57EE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8401050" y="5934075"/>
+          <a:off x="8804275" y="5984875"/>
           <a:ext cx="76944" cy="195601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7568,14 +8060,20 @@
     <xdr:ext cx="42769" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Rectangle 91"/>
+        <xdr:cNvPr id="92" name="Rectangle 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A7FF9A-1E22-4C92-9425-E1C108A43387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8210550" y="5934075"/>
+          <a:off x="8585200" y="5984875"/>
           <a:ext cx="42769" cy="195601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7623,14 +8121,20 @@
     <xdr:ext cx="76944" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Rectangle 92"/>
+        <xdr:cNvPr id="93" name="Rectangle 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905873E8-6DD2-4614-AB56-D524E6E7C617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7315200" y="5934075"/>
+          <a:off x="7661275" y="5984875"/>
           <a:ext cx="76944" cy="195601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7678,14 +8182,20 @@
     <xdr:ext cx="44884" cy="112618"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="Rectangle 93"/>
+        <xdr:cNvPr id="94" name="Rectangle 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{275DFB8D-62F3-4A67-A5A8-637205BBD7BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8143875" y="5876925"/>
+          <a:off x="8518525" y="5927725"/>
           <a:ext cx="44884" cy="112618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7733,14 +8243,20 @@
     <xdr:ext cx="44884" cy="112618"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="Rectangle 94"/>
+        <xdr:cNvPr id="95" name="Rectangle 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95268BEA-0B21-4780-B4A1-4C084608EB5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7658100" y="5857875"/>
+          <a:off x="8004175" y="5918200"/>
           <a:ext cx="44884" cy="112618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7788,14 +8304,20 @@
     <xdr:ext cx="44884" cy="112618"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="Rectangle 95"/>
+        <xdr:cNvPr id="96" name="Rectangle 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD0F546-D612-40FF-8A01-32BE806C42A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7524750" y="6010275"/>
+          <a:off x="7870825" y="6061075"/>
           <a:ext cx="44884" cy="112618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7843,15 +8365,21 @@
     <xdr:ext cx="84447" cy="197939"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="Rectangle 96"/>
+        <xdr:cNvPr id="97" name="Rectangle 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98224694-BB54-4B25-AD19-F60E76CEB480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7795532" y="6015718"/>
-          <a:ext cx="84447" cy="188513"/>
+          <a:off x="8099425" y="5984875"/>
+          <a:ext cx="84447" cy="197939"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7897,14 +8425,20 @@
     <xdr:ext cx="85408" cy="333231"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="Rectangle 97"/>
+        <xdr:cNvPr id="98" name="Rectangle 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB023A1-58E7-47E0-8DCF-D19F42910FE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7762875" y="6972300"/>
+          <a:off x="8108950" y="7023100"/>
           <a:ext cx="85408" cy="333231"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7951,14 +8485,20 @@
     <xdr:ext cx="85408" cy="333231"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="Rectangle 98"/>
+        <xdr:cNvPr id="99" name="Rectangle 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F91B1DF-EB28-438D-A913-BE565325668D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8639175" y="6953250"/>
+          <a:off x="9042400" y="7004050"/>
           <a:ext cx="85408" cy="333231"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8010,14 +8550,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1789" name="Line 99"/>
+        <xdr:cNvPr id="100" name="Line 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC6DE29-B6C3-4AFA-BD56-AB02ED611214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7658100" y="7153275"/>
+          <a:off x="8004175" y="7204075"/>
           <a:ext cx="47625" cy="85725"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8058,14 +8604,20 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1790" name="Line 100"/>
+        <xdr:cNvPr id="101" name="Line 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1347B16-E2BD-44B5-B812-97EF90B332DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="7715250" y="6962775"/>
+          <a:off x="8061325" y="7013575"/>
           <a:ext cx="66675" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8106,15 +8658,21 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1791" name="Line 101"/>
+        <xdr:cNvPr id="102" name="Line 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6141154-2026-442B-91CF-4072FC368113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="7781925" y="6962775"/>
-          <a:ext cx="1019175" cy="0"/>
+          <a:off x="8128000" y="7013575"/>
+          <a:ext cx="1076325" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8149,14 +8707,20 @@
     <xdr:ext cx="61555" cy="147476"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="Rectangle 102"/>
+        <xdr:cNvPr id="103" name="Rectangle 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE91B9A5-4407-4ED0-81E4-4853D5149C7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8553450" y="7038975"/>
+          <a:off x="8956675" y="7089775"/>
           <a:ext cx="61555" cy="147476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8204,14 +8768,20 @@
     <xdr:ext cx="61555" cy="147476"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="Rectangle 103"/>
+        <xdr:cNvPr id="104" name="Rectangle 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73CB8C95-A2E5-401B-BB0C-4247C4E229B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8086725" y="7029450"/>
+          <a:off x="8461375" y="7089775"/>
           <a:ext cx="61555" cy="147476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8259,14 +8829,20 @@
     <xdr:ext cx="119713" cy="176972"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="Rectangle 104"/>
+        <xdr:cNvPr id="105" name="Rectangle 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C853B7-DBC0-49A6-A682-958C17A5EFF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7267575" y="7077075"/>
+          <a:off x="7613650" y="7127875"/>
           <a:ext cx="119713" cy="176972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8314,14 +8890,20 @@
     <xdr:ext cx="216200" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="Rectangle 105"/>
+        <xdr:cNvPr id="106" name="Rectangle 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975F2168-3F29-4416-871F-E2EF7790EC02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8315325" y="7077075"/>
+          <a:off x="8699500" y="7127875"/>
           <a:ext cx="216200" cy="195601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8369,14 +8951,20 @@
     <xdr:ext cx="216200" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="Rectangle 106"/>
+        <xdr:cNvPr id="107" name="Rectangle 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483F5523-BD8F-42B6-8E76-EDEAF24CEC3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7858125" y="7077075"/>
+          <a:off x="8232775" y="7127875"/>
           <a:ext cx="216200" cy="195601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8424,14 +9012,20 @@
     <xdr:ext cx="112800" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="Rectangle 107"/>
+        <xdr:cNvPr id="108" name="Rectangle 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A825416-CCBD-447A-936D-57DA9091ADA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7429500" y="7077075"/>
+          <a:off x="7775575" y="7127875"/>
           <a:ext cx="112800" cy="195601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8479,14 +9073,20 @@
     <xdr:ext cx="112800" cy="195601"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="Rectangle 108"/>
+        <xdr:cNvPr id="109" name="Rectangle 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3883ED4D-1525-4170-8D60-E381735A7E7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7124700" y="7077075"/>
+          <a:off x="7442200" y="7127875"/>
           <a:ext cx="112800" cy="195601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8534,14 +9134,20 @@
     <xdr:ext cx="84447" cy="197939"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="Rectangle 109"/>
+        <xdr:cNvPr id="110" name="Rectangle 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D0F3AF-B225-4710-920E-EFDF6055176D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8201025" y="7048500"/>
+          <a:off x="8575675" y="7099300"/>
           <a:ext cx="84447" cy="197939"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8588,15 +9194,21 @@
     <xdr:ext cx="84447" cy="197939"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="Rectangle 110"/>
+        <xdr:cNvPr id="111" name="Rectangle 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{168C8114-59F3-42F1-951A-D24E98CA7BE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7595507" y="7130143"/>
-          <a:ext cx="84447" cy="188513"/>
+          <a:off x="7899400" y="7099300"/>
+          <a:ext cx="84447" cy="197939"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8647,7 +9259,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1801" name="Picture 112"/>
+        <xdr:cNvPr id="112" name="Picture 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68989CEB-4727-45D3-9106-3D449BF119C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8668,7 +9286,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="104775" y="28575"/>
-          <a:ext cx="1152525" cy="600075"/>
+          <a:ext cx="1187450" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8711,11 +9329,17 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>109526</xdr:rowOff>
+      <xdr:rowOff>147626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="113" name="Picture 112" descr="http://cdn2.content.compendiumblog.com/uploads/user/458939f4-fe08-4dbc-b271-efca0f5a2682/6060c2db-f5d9-449b-abe2-68eade74814a/Image/d840d539abbf0f0cc70c3cb03c823cb1/equation1.jpg"/>
+        <xdr:cNvPr id="113" name="Picture 112" descr="http://cdn2.content.compendiumblog.com/uploads/user/458939f4-fe08-4dbc-b271-efca0f5a2682/6060c2db-f5d9-449b-abe2-68eade74814a/Image/d840d539abbf0f0cc70c3cb03c823cb1/equation1.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C9EC44-026B-4BDE-A6C4-4C6BB6B371E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8735,8 +9359,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2028825" y="5514976"/>
-          <a:ext cx="1724025" cy="309550"/>
+          <a:off x="2117725" y="5565776"/>
+          <a:ext cx="1793875" cy="309550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8759,9 +9383,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8799,9 +9423,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8836,7 +9460,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8871,7 +9495,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9044,482 +9668,482 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="3" spans="1:16" ht="38.25">
-      <c r="A3" s="205" t="s">
+    <row r="3" spans="1:16" ht="37.5">
+      <c r="A3" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="206" t="s">
+      <c r="B3" s="179" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="206" t="s">
+      <c r="C3" s="179" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="206" t="s">
+      <c r="D3" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="206" t="s">
+      <c r="E3" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="206" t="s">
+      <c r="F3" s="179" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="206" t="s">
+      <c r="G3" s="179" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="206" t="s">
+      <c r="H3" s="179" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="206" t="s">
+      <c r="I3" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="206" t="s">
+      <c r="J3" s="179" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="206" t="s">
+      <c r="K3" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="206" t="s">
+      <c r="L3" s="179" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="206" t="s">
+      <c r="M3" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="206" t="s">
+      <c r="N3" s="179" t="s">
         <v>101</v>
       </c>
-      <c r="O3" s="206" t="s">
+      <c r="O3" s="179" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="208" t="s">
+      <c r="D4" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="208" t="s">
+      <c r="E4" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="208" t="s">
+      <c r="F4" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="208" t="s">
+      <c r="G4" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="208" t="s">
+      <c r="H4" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="208" t="s">
+      <c r="I4" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="208" t="s">
+      <c r="J4" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="208" t="s">
+      <c r="K4" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="L4" s="208" t="s">
+      <c r="L4" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="208" t="s">
+      <c r="M4" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="N4" s="208" t="s">
+      <c r="N4" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="O4" s="208" t="s">
+      <c r="O4" s="181" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="207" t="s">
+    <row r="5" spans="1:16" ht="13">
+      <c r="A5" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="209"/>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="209"/>
-      <c r="L5" s="209"/>
-      <c r="M5" s="209"/>
-      <c r="N5" s="209"/>
-      <c r="O5" s="209"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="207" t="s">
+    <row r="6" spans="1:16" ht="13">
+      <c r="A6" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="209" t="s">
+      <c r="B6" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="209" t="s">
+      <c r="C6" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="209" t="s">
+      <c r="D6" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="209" t="s">
+      <c r="E6" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="209" t="s">
+      <c r="F6" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="209" t="s">
+      <c r="G6" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="209" t="s">
+      <c r="H6" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="209" t="s">
+      <c r="I6" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="209" t="s">
+      <c r="J6" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="209" t="s">
+      <c r="K6" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="209" t="s">
+      <c r="L6" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="M6" s="209" t="s">
+      <c r="M6" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="209" t="s">
+      <c r="N6" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="209" t="s">
+      <c r="O6" s="182" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30">
-      <c r="A9" s="205" t="s">
+    <row r="9" spans="1:16" ht="28">
+      <c r="A9" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="210" t="s">
+      <c r="B9" s="183" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="210" t="s">
+      <c r="C9" s="183" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="210" t="s">
+      <c r="D9" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="210" t="s">
+      <c r="E9" s="183" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="210" t="s">
+      <c r="F9" s="183" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="210" t="s">
+      <c r="G9" s="183" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="210" t="s">
+      <c r="H9" s="183" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="210" t="s">
+      <c r="I9" s="183" t="s">
         <v>124</v>
       </c>
-      <c r="J9" s="210" t="s">
+      <c r="J9" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="K9" s="210" t="s">
+      <c r="K9" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="L9" s="210" t="s">
+      <c r="L9" s="183" t="s">
         <v>127</v>
       </c>
-      <c r="M9" s="210" t="s">
+      <c r="M9" s="183" t="s">
         <v>128</v>
       </c>
-      <c r="N9" s="210" t="s">
+      <c r="N9" s="183" t="s">
         <v>129</v>
       </c>
-      <c r="O9" s="210" t="s">
+      <c r="O9" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="P9" s="210" t="s">
+      <c r="P9" s="183" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="207" t="s">
+      <c r="A10" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="208" t="s">
+      <c r="B10" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="208" t="s">
+      <c r="C10" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="208" t="s">
+      <c r="D10" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="208" t="s">
+      <c r="E10" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="208" t="s">
+      <c r="F10" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="208" t="s">
+      <c r="G10" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="208" t="s">
+      <c r="H10" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="208" t="s">
+      <c r="I10" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="208" t="s">
+      <c r="J10" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="208" t="s">
+      <c r="K10" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="208" t="s">
+      <c r="L10" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="M10" s="208" t="s">
+      <c r="M10" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="N10" s="208" t="s">
+      <c r="N10" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="O10" s="208" t="s">
+      <c r="O10" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="P10" s="208" t="s">
+      <c r="P10" s="181" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="207" t="s">
+    <row r="11" spans="1:16" ht="13">
+      <c r="A11" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="209"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="209"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="209"/>
-      <c r="K11" s="209"/>
-      <c r="L11" s="209"/>
-      <c r="M11" s="209"/>
-      <c r="N11" s="209"/>
-      <c r="O11" s="209"/>
-      <c r="P11" s="209"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="182"/>
+      <c r="M11" s="182"/>
+      <c r="N11" s="182"/>
+      <c r="O11" s="182"/>
+      <c r="P11" s="182"/>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="207" t="s">
+    <row r="12" spans="1:16" ht="13">
+      <c r="A12" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="209" t="s">
+      <c r="B12" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="209" t="s">
+      <c r="C12" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="209" t="s">
+      <c r="D12" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="209" t="s">
+      <c r="E12" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="209" t="s">
+      <c r="F12" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="209" t="s">
+      <c r="G12" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="209" t="s">
+      <c r="H12" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="209" t="s">
+      <c r="I12" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="209" t="s">
+      <c r="J12" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="K12" s="209" t="s">
+      <c r="K12" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="209" t="s">
+      <c r="L12" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="M12" s="209" t="s">
+      <c r="M12" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="N12" s="209" t="s">
+      <c r="N12" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="O12" s="209" t="s">
+      <c r="O12" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="209" t="s">
+      <c r="P12" s="182" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="60">
-      <c r="A15" s="205" t="s">
+    <row r="15" spans="1:16" ht="56">
+      <c r="A15" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="183" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="210" t="s">
+      <c r="C15" s="183" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="210" t="s">
+      <c r="D15" s="183" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="210" t="s">
+      <c r="E15" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="210" t="s">
+      <c r="F15" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="210" t="s">
+      <c r="G15" s="183" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="210" t="s">
+      <c r="H15" s="183" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="210" t="s">
+      <c r="I15" s="183" t="s">
         <v>111</v>
       </c>
-      <c r="J15" s="210" t="s">
+      <c r="J15" s="183" t="s">
         <v>112</v>
       </c>
-      <c r="K15" s="210" t="s">
+      <c r="K15" s="183" t="s">
         <v>113</v>
       </c>
-      <c r="L15" s="210" t="s">
+      <c r="L15" s="183" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="210" t="s">
+      <c r="M15" s="183" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15">
-      <c r="A16" s="207" t="s">
+    <row r="16" spans="1:16" ht="14">
+      <c r="A16" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="211" t="s">
+      <c r="B16" s="184" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="211" t="s">
+      <c r="C16" s="184" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="211" t="s">
+      <c r="D16" s="184" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="211" t="s">
+      <c r="E16" s="184" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="211" t="s">
+      <c r="F16" s="184" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="211" t="s">
+      <c r="G16" s="184" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="211" t="s">
+      <c r="H16" s="184" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="211" t="s">
+      <c r="I16" s="184" t="s">
         <v>103</v>
       </c>
-      <c r="J16" s="211" t="s">
+      <c r="J16" s="184" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="211" t="s">
+      <c r="K16" s="184" t="s">
         <v>103</v>
       </c>
-      <c r="L16" s="211" t="s">
+      <c r="L16" s="184" t="s">
         <v>88</v>
       </c>
-      <c r="M16" s="211" t="s">
+      <c r="M16" s="184" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15">
-      <c r="A17" s="207" t="s">
+    <row r="17" spans="1:13" ht="14">
+      <c r="A17" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="212"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
-      <c r="K17" s="212"/>
-      <c r="L17" s="212"/>
-      <c r="M17" s="212"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="185"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="185"/>
+      <c r="L17" s="185"/>
+      <c r="M17" s="185"/>
     </row>
-    <row r="18" spans="1:13" ht="15">
-      <c r="A18" s="207" t="s">
+    <row r="18" spans="1:13" ht="14">
+      <c r="A18" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="212" t="s">
+      <c r="B18" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="212" t="s">
+      <c r="D18" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="212" t="s">
+      <c r="E18" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="212" t="s">
+      <c r="F18" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="212" t="s">
+      <c r="G18" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="212" t="s">
+      <c r="H18" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="212" t="s">
+      <c r="I18" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="212" t="s">
+      <c r="J18" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="K18" s="212" t="s">
+      <c r="K18" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="212" t="s">
+      <c r="L18" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="212" t="s">
+      <c r="M18" s="185" t="s">
         <v>86</v>
       </c>
     </row>
@@ -9530,127 +10154,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AP179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F982DA1C-BB7D-4F1F-AAB8-2A828E131F95}">
+  <dimension ref="A1:AP67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" customWidth="1"/>
-    <col min="13" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" customWidth="1"/>
-    <col min="19" max="20" width="8.7109375" customWidth="1"/>
-    <col min="21" max="21" width="5.28515625" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" customWidth="1"/>
-    <col min="23" max="23" width="1.85546875" customWidth="1"/>
-    <col min="26" max="32" width="9.140625" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" customWidth="1"/>
-    <col min="34" max="42" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" customWidth="1"/>
+    <col min="12" max="12" width="4.81640625" customWidth="1"/>
+    <col min="18" max="18" width="4.81640625" customWidth="1"/>
+    <col min="21" max="21" width="5.26953125" customWidth="1"/>
+    <col min="22" max="22" width="10.453125" customWidth="1"/>
+    <col min="23" max="23" width="1.81640625" customWidth="1"/>
+    <col min="26" max="32" width="9.1796875" customWidth="1"/>
+    <col min="33" max="33" width="11.453125" customWidth="1"/>
+    <col min="34" max="42" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="D1" s="219" t="s">
+      <c r="D1" s="192" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="219"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="219"/>
-      <c r="P1" s="219"/>
-      <c r="Q1" s="219"/>
-      <c r="R1" s="219"/>
-      <c r="S1" s="219"/>
-      <c r="T1" s="219"/>
-      <c r="U1" s="219"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="219"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="192"/>
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="192"/>
+      <c r="T1" s="192"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="192"/>
+      <c r="W1" s="192"/>
     </row>
     <row r="2" spans="1:42">
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
-      <c r="L2" s="219"/>
-      <c r="M2" s="219"/>
-      <c r="N2" s="219"/>
-      <c r="O2" s="219"/>
-      <c r="P2" s="219"/>
-      <c r="Q2" s="219"/>
-      <c r="R2" s="219"/>
-      <c r="S2" s="219"/>
-      <c r="T2" s="219"/>
-      <c r="U2" s="219"/>
-      <c r="V2" s="219"/>
-      <c r="W2" s="219"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="192"/>
+      <c r="Q2" s="192"/>
+      <c r="R2" s="192"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
     </row>
     <row r="3" spans="1:42">
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="219"/>
-      <c r="K3" s="219"/>
-      <c r="L3" s="219"/>
-      <c r="M3" s="219"/>
-      <c r="N3" s="219"/>
-      <c r="O3" s="219"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="219"/>
-      <c r="S3" s="219"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
     </row>
-    <row r="4" spans="1:42" ht="13.5" thickBot="1">
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="220"/>
-      <c r="N4" s="220"/>
-      <c r="O4" s="220"/>
-      <c r="P4" s="220"/>
-      <c r="Q4" s="220"/>
-      <c r="R4" s="220"/>
-      <c r="S4" s="220"/>
-      <c r="T4" s="220"/>
-      <c r="U4" s="220"/>
-      <c r="V4" s="220"/>
-      <c r="W4" s="220"/>
+    <row r="4" spans="1:42" ht="13" thickBot="1">
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="193"/>
+      <c r="M4" s="193"/>
+      <c r="N4" s="193"/>
+      <c r="O4" s="193"/>
+      <c r="P4" s="193"/>
+      <c r="Q4" s="193"/>
+      <c r="R4" s="193"/>
+      <c r="S4" s="193"/>
+      <c r="T4" s="193"/>
+      <c r="U4" s="193"/>
+      <c r="V4" s="193"/>
+      <c r="W4" s="193"/>
     </row>
     <row r="5" spans="1:42" ht="6.75" customHeight="1">
       <c r="A5" s="1"/>
@@ -9677,948 +10292,900 @@
       <c r="V5" s="2"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" ht="13">
       <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="221"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6" t="s">
+      <c r="E6" s="194"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="L6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="8"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="W6" s="7"/>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:42" ht="13">
       <c r="A7" s="4"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="8"/>
+      <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="223"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="224"/>
-      <c r="H7" s="224"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6" t="s">
+      <c r="E7" s="196"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="197"/>
+      <c r="L7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="6" t="s">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="S7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="8"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="7"/>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:42" ht="13">
       <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="225"/>
-      <c r="F8" s="226"/>
-      <c r="G8" s="226"/>
-      <c r="H8" s="226"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6" t="s">
+      <c r="E8" s="198"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="199"/>
+      <c r="L8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="6" t="s">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="S8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="8"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="7"/>
     </row>
     <row r="9" spans="1:42" ht="9" customHeight="1" thickBot="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="8"/>
+      <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="1:42" ht="15.95" customHeight="1" thickTop="1">
+    <row r="10" spans="1:42" ht="16" customHeight="1" thickTop="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="227"/>
-      <c r="F10" s="228"/>
-      <c r="G10" s="228"/>
-      <c r="H10" s="15" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="203"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="15" t="s">
+      <c r="J10" s="13"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="176"/>
+      <c r="M10" s="176"/>
+      <c r="N10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="227"/>
-      <c r="R10" s="228"/>
-      <c r="S10" s="228"/>
-      <c r="T10" s="15" t="s">
+      <c r="P10" s="13"/>
+      <c r="Q10" s="200"/>
+      <c r="R10" s="201"/>
+      <c r="S10" s="201"/>
+      <c r="T10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="8"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="1:42" ht="15.95" customHeight="1">
+    <row r="11" spans="1:42" ht="16" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="19" t="s">
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="22" t="s">
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="W11" s="8"/>
+      <c r="W11" s="7"/>
     </row>
-    <row r="12" spans="1:42" ht="15.95" customHeight="1" thickBot="1">
+    <row r="12" spans="1:42" ht="16" customHeight="1" thickBot="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>1</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <v>2</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <v>3</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27" t="s">
+      <c r="F12" s="25"/>
+      <c r="G12" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <v>1</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="24">
         <v>2</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="24">
         <v>3</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="27" t="s">
+      <c r="L12" s="28"/>
+      <c r="M12" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="23">
         <v>1</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P12" s="24">
         <v>2</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="Q12" s="24">
         <v>3</v>
       </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="27" t="s">
+      <c r="R12" s="28"/>
+      <c r="S12" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="T12" s="29" t="s">
+      <c r="T12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="U12" s="31"/>
-      <c r="V12" s="32" t="s">
+      <c r="U12" s="30"/>
+      <c r="V12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="W12" s="8"/>
+      <c r="W12" s="7"/>
     </row>
-    <row r="13" spans="1:42" ht="15.95" customHeight="1" thickTop="1">
+    <row r="13" spans="1:42" ht="16" customHeight="1" thickTop="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>1</v>
       </c>
-      <c r="C13" s="197"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35" t="str">
+      <c r="C13" s="170"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34" t="str">
         <f t="shared" ref="G13:G22" si="0">IF(COUNT(C13:E13)&gt;1,AVERAGE(C13:E13),AC13)</f>
         <v/>
       </c>
-      <c r="H13" s="36" t="str">
+      <c r="H13" s="35" t="str">
         <f t="shared" ref="H13:H22" si="1">IF(COUNT(C13:E13)&gt;1,((MAX(C13:E13))-(MIN(C13:E13))),AI13)</f>
         <v/>
       </c>
-      <c r="I13" s="197"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="198"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="35" t="str">
+      <c r="I13" s="170"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="34" t="str">
         <f t="shared" ref="M13:M22" si="2">IF(COUNT(I13:K13)&gt;1,AVERAGE(I13:K13),AE13)</f>
         <v/>
       </c>
-      <c r="N13" s="36" t="str">
+      <c r="N13" s="35" t="str">
         <f t="shared" ref="N13:N22" si="3">IF(COUNT(I13:K13)&gt;1,((MAX(I13:K13))-(MIN(I13:K13))),AK13)</f>
         <v/>
       </c>
-      <c r="O13" s="197"/>
-      <c r="P13" s="198"/>
-      <c r="Q13" s="198"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="35" t="str">
+      <c r="O13" s="170"/>
+      <c r="P13" s="171"/>
+      <c r="Q13" s="171"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="34" t="str">
         <f t="shared" ref="S13:S22" si="4">IF(COUNT(O13:Q13)&gt;1,AVERAGE(O13:Q13),AG13)</f>
         <v/>
       </c>
-      <c r="T13" s="36" t="str">
+      <c r="T13" s="35" t="str">
         <f t="shared" ref="T13:T22" si="5">IF(COUNT(O13:Q13)&gt;1,((MAX(O13:Q13))-(MIN(O13:Q13))),AM13)</f>
         <v/>
       </c>
-      <c r="U13" s="38"/>
-      <c r="V13" s="39" t="str">
+      <c r="U13" s="37"/>
+      <c r="V13" s="38" t="str">
         <f t="shared" ref="V13:V22" si="6">IF((COUNT(C13:E13)+COUNT(I13:K13)+COUNT(O13:Q13))=0,"",AO13)</f>
         <v/>
       </c>
-      <c r="W13" s="40"/>
+      <c r="W13" s="39"/>
       <c r="Z13" t="str">
         <f t="shared" ref="Z13:Z22" si="7">IF(COUNT(V13)&gt;0,V13,"")</f>
         <v/>
       </c>
-      <c r="AC13" s="41" t="str">
+      <c r="AC13" s="40" t="str">
         <f t="shared" ref="AC13:AC22" si="8">IF((COUNT(C13:E13))=0,"",AD13)</f>
         <v/>
       </c>
-      <c r="AD13" s="41" t="e">
+      <c r="AD13" s="40" t="e">
         <f t="shared" ref="AD13:AD22" si="9">IF(OR(((COUNT(C13:E13))&lt;(COUNT(I13:K13))),((COUNT(C13:E13))&lt;(COUNT(O13:Q13)))),"ERR",AVERAGE(C13:E13))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE13" s="41" t="str">
+      <c r="AE13" s="40" t="str">
         <f t="shared" ref="AE13:AE22" si="10">IF((COUNT(I13:K13))=0,"",AF13)</f>
         <v/>
       </c>
-      <c r="AF13" s="41" t="e">
+      <c r="AF13" s="40" t="e">
         <f t="shared" ref="AF13:AF22" si="11">IF(OR(((COUNT(I13:K13))&lt;(COUNT(C13:E13))),((COUNT(I13:K13))&lt;(COUNT(O13:Q13)))),"ERR",AVERAGE(I13:K13))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG13" s="41" t="str">
+      <c r="AG13" s="40" t="str">
         <f t="shared" ref="AG13:AG22" si="12">IF((COUNT(O13:Q13))=0,"",AH13)</f>
         <v/>
       </c>
-      <c r="AH13" s="41" t="e">
+      <c r="AH13" s="40" t="e">
         <f t="shared" ref="AH13:AH22" si="13">IF(OR(((COUNT(O13:Q13))&lt;(COUNT(C13:E13))),((COUNT(O13:Q13))&lt;(COUNT(I13:K13)))),"ERR",AVERAGE(O13:Q13))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI13" s="41" t="str">
+      <c r="AI13" s="40" t="str">
         <f t="shared" ref="AI13:AI22" si="14">IF((COUNT(C13:E13))=0,"",AJ13)</f>
         <v/>
       </c>
-      <c r="AJ13" s="41">
+      <c r="AJ13" s="40">
         <f t="shared" ref="AJ13:AJ22" si="15">IF(OR(((COUNT(C13:E13))&lt;(COUNT(I13:K13))),((COUNT(C13:E13))&lt;(COUNT(O13:Q13)))),"ERR",((MAX(C13:E13))-(MIN(C13:E13))))</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="41" t="str">
+      <c r="AK13" s="40" t="str">
         <f t="shared" ref="AK13:AK22" si="16">IF((COUNT(I13:K13))=0,"",AL13)</f>
         <v/>
       </c>
-      <c r="AL13" s="41">
+      <c r="AL13" s="40">
         <f t="shared" ref="AL13:AL22" si="17">IF(OR(((COUNT(I13:K13))&lt;(COUNT(C13:E13))),((COUNT(I13:K13))&lt;(COUNT(O13:Q13)))),"ERR",((MAX(I13:K13))-(MIN(I13:K13))))</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="41" t="str">
+      <c r="AM13" s="40" t="str">
         <f t="shared" ref="AM13:AM22" si="18">IF((COUNT(O13:Q13))=0,"",AN13)</f>
         <v/>
       </c>
-      <c r="AN13" s="41">
+      <c r="AN13" s="40">
         <f t="shared" ref="AN13:AN22" si="19">IF(OR(((COUNT(O13:Q13))&lt;(COUNT(C13:E13))),((COUNT(O13:Q13))&lt;(COUNT(I13:K13)))),"ERR",((MAX(O13:Q13))-(MIN(O13:Q13))))</f>
         <v>0</v>
       </c>
-      <c r="AO13" s="41" t="e">
+      <c r="AO13" s="40" t="e">
         <f t="shared" ref="AO13:AO22" si="20">IF(OR(((COUNT(C13:E13))&lt;(COUNT(O13:Q13))),((COUNT(I13:K13))&lt;(COUNT(C13:E13)))),"ERR",IF(AND(COUNT(S13)=0,(COUNT(G13)+COUNT(M13))=2),SUM(C13:E13,I13:K13)/COUNT(C13:E13,I13:K13),AP13))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP13" s="41" t="e">
+      <c r="AP13" s="40" t="e">
         <f t="shared" ref="AP13:AP22" si="21">IF(AND(COUNT(S$13:S$22)&gt;0,COUNT(S$13:S$22)&lt;(COUNT(G$13:G$22)+COUNT(M$13:M$22))/2),"ERR",SUM(C13:E13,I13:K13,O13:Q13)/COUNT(C13:E13,I13:K13,O13:Q13))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="15.95" customHeight="1">
+    <row r="14" spans="1:42" ht="16" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="42">
+      <c r="B14" s="41">
         <v>2</v>
       </c>
-      <c r="C14" s="199"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="198"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44" t="str">
+      <c r="C14" s="172"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H14" s="45" t="str">
+      <c r="H14" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I14" s="199"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="198"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44" t="str">
+      <c r="I14" s="172"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="43" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N14" s="45" t="str">
+      <c r="N14" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O14" s="199"/>
-      <c r="P14" s="200"/>
-      <c r="Q14" s="198"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="44" t="str">
+      <c r="O14" s="172"/>
+      <c r="P14" s="173"/>
+      <c r="Q14" s="171"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="43" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="T14" s="45" t="str">
+      <c r="T14" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U14" s="46"/>
-      <c r="V14" s="47" t="str">
+      <c r="U14" s="45"/>
+      <c r="V14" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W14" s="8"/>
+      <c r="W14" s="7"/>
       <c r="Z14" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AC14" s="41" t="str">
+      <c r="AC14" s="40" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AD14" s="41" t="e">
+      <c r="AD14" s="40" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE14" s="41" t="str">
+      <c r="AE14" s="40" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AF14" s="41" t="e">
+      <c r="AF14" s="40" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG14" s="41" t="str">
+      <c r="AG14" s="40" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AH14" s="41" t="e">
+      <c r="AH14" s="40" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI14" s="41" t="str">
+      <c r="AI14" s="40" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AJ14" s="41">
+      <c r="AJ14" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="41" t="str">
+      <c r="AK14" s="40" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AL14" s="41">
+      <c r="AL14" s="40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AM14" s="41" t="str">
+      <c r="AM14" s="40" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AN14" s="41">
+      <c r="AN14" s="40">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AO14" s="41" t="e">
+      <c r="AO14" s="40" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP14" s="41" t="e">
+      <c r="AP14" s="40" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="15.95" customHeight="1">
+    <row r="15" spans="1:42" ht="16" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="42">
+      <c r="B15" s="41">
         <v>3</v>
       </c>
-      <c r="C15" s="199"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44" t="str">
+      <c r="C15" s="172"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H15" s="45" t="str">
+      <c r="H15" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I15" s="199"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="200"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44" t="str">
+      <c r="I15" s="172"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N15" s="45" t="str">
+      <c r="N15" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O15" s="199"/>
-      <c r="P15" s="200"/>
-      <c r="Q15" s="200"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="44" t="str">
+      <c r="O15" s="172"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="43" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="T15" s="45" t="str">
+      <c r="T15" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U15" s="46"/>
-      <c r="V15" s="47" t="str">
+      <c r="U15" s="45"/>
+      <c r="V15" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W15" s="8"/>
+      <c r="W15" s="7"/>
       <c r="Z15" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AC15" s="41" t="str">
+      <c r="AC15" s="40" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AD15" s="41" t="e">
+      <c r="AD15" s="40" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE15" s="41" t="str">
+      <c r="AE15" s="40" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AF15" s="41" t="e">
+      <c r="AF15" s="40" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG15" s="41" t="str">
+      <c r="AG15" s="40" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AH15" s="41" t="e">
+      <c r="AH15" s="40" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI15" s="41" t="str">
+      <c r="AI15" s="40" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AJ15" s="41">
+      <c r="AJ15" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="41" t="str">
+      <c r="AK15" s="40" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AL15" s="41">
+      <c r="AL15" s="40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AM15" s="41" t="str">
+      <c r="AM15" s="40" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AN15" s="41">
+      <c r="AN15" s="40">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AO15" s="41" t="e">
+      <c r="AO15" s="40" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP15" s="41" t="e">
+      <c r="AP15" s="40" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="15.95" customHeight="1">
+    <row r="16" spans="1:42" ht="16" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="42">
+      <c r="B16" s="41">
         <v>4</v>
       </c>
-      <c r="C16" s="199"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44" t="str">
+      <c r="C16" s="172"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H16" s="45" t="str">
+      <c r="H16" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="200"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44" t="str">
+      <c r="I16" s="172"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="43" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N16" s="45" t="str">
+      <c r="N16" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O16" s="199"/>
-      <c r="P16" s="200"/>
-      <c r="Q16" s="200"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="44" t="str">
+      <c r="O16" s="172"/>
+      <c r="P16" s="173"/>
+      <c r="Q16" s="173"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="T16" s="45" t="str">
+      <c r="T16" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U16" s="46"/>
-      <c r="V16" s="47" t="str">
+      <c r="U16" s="45"/>
+      <c r="V16" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W16" s="8"/>
+      <c r="W16" s="7"/>
       <c r="Z16" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AC16" s="41" t="str">
+      <c r="AC16" s="40" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AD16" s="41" t="e">
+      <c r="AD16" s="40" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE16" s="41" t="str">
+      <c r="AE16" s="40" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AF16" s="41" t="e">
+      <c r="AF16" s="40" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG16" s="41" t="str">
+      <c r="AG16" s="40" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AH16" s="41" t="e">
+      <c r="AH16" s="40" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI16" s="41" t="str">
+      <c r="AI16" s="40" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AJ16" s="41">
+      <c r="AJ16" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="41" t="str">
+      <c r="AK16" s="40" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AL16" s="41">
+      <c r="AL16" s="40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AM16" s="41" t="str">
+      <c r="AM16" s="40" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AN16" s="41">
+      <c r="AN16" s="40">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AO16" s="41" t="e">
+      <c r="AO16" s="40" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP16" s="41" t="e">
+      <c r="AP16" s="40" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="15.95" customHeight="1">
+    <row r="17" spans="1:42" ht="16" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="42">
+      <c r="B17" s="41">
         <v>5</v>
       </c>
-      <c r="C17" s="199"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="200"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44" t="str">
+      <c r="C17" s="172"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H17" s="45" t="str">
+      <c r="H17" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I17" s="199"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="200"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44" t="str">
+      <c r="I17" s="172"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="43" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N17" s="45" t="str">
+      <c r="N17" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O17" s="199"/>
-      <c r="P17" s="200"/>
-      <c r="Q17" s="200"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="44" t="str">
+      <c r="O17" s="172"/>
+      <c r="P17" s="173"/>
+      <c r="Q17" s="173"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="43" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="T17" s="45" t="str">
+      <c r="T17" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U17" s="46"/>
-      <c r="V17" s="47" t="str">
+      <c r="U17" s="45"/>
+      <c r="V17" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W17" s="8"/>
+      <c r="W17" s="7"/>
       <c r="Z17" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AC17" s="41" t="str">
+      <c r="AC17" s="40" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AD17" s="41" t="e">
+      <c r="AD17" s="40" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE17" s="41" t="str">
+      <c r="AE17" s="40" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AF17" s="41" t="e">
+      <c r="AF17" s="40" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG17" s="41" t="str">
+      <c r="AG17" s="40" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AH17" s="41" t="e">
+      <c r="AH17" s="40" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI17" s="41" t="str">
+      <c r="AI17" s="40" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AJ17" s="41">
+      <c r="AJ17" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="41" t="str">
+      <c r="AK17" s="40" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AL17" s="41">
+      <c r="AL17" s="40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AM17" s="41" t="str">
+      <c r="AM17" s="40" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AN17" s="41">
+      <c r="AN17" s="40">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AO17" s="41" t="e">
+      <c r="AO17" s="40" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP17" s="41" t="e">
+      <c r="AP17" s="40" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="15.95" customHeight="1">
+    <row r="18" spans="1:42" ht="16" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="42">
+      <c r="B18" s="41">
         <v>6</v>
       </c>
-      <c r="C18" s="199"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44" t="str">
+      <c r="C18" s="172"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H18" s="45" t="str">
+      <c r="H18" s="44" t="str">
         <f>IF(COUNT(C18:E18)&gt;1,((MAX(C18:E18))-(MIN(C18:E18))),AI18)</f>
         <v/>
       </c>
-      <c r="I18" s="199"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="200"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44" t="str">
+      <c r="I18" s="172"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N18" s="45" t="str">
+      <c r="N18" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O18" s="199"/>
-      <c r="P18" s="200"/>
-      <c r="Q18" s="200"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="44" t="str">
+      <c r="O18" s="172"/>
+      <c r="P18" s="173"/>
+      <c r="Q18" s="173"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="43" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="T18" s="45" t="str">
+      <c r="T18" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U18" s="46"/>
-      <c r="V18" s="47" t="str">
+      <c r="U18" s="45"/>
+      <c r="V18" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W18" s="8"/>
+      <c r="W18" s="7"/>
       <c r="Z18" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AC18" s="41" t="str">
+      <c r="AC18" s="40" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AD18" s="41" t="e">
+      <c r="AD18" s="40" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE18" s="41" t="str">
+      <c r="AE18" s="40" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AF18" s="41" t="e">
+      <c r="AF18" s="40" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG18" s="41" t="str">
+      <c r="AG18" s="40" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AH18" s="41" t="e">
+      <c r="AH18" s="40" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI18" s="41" t="str">
+      <c r="AI18" s="40" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AJ18" s="41">
+      <c r="AJ18" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="41" t="str">
+      <c r="AK18" s="40" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AL18" s="41">
+      <c r="AL18" s="40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AM18" s="41" t="str">
+      <c r="AM18" s="40" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AN18" s="41">
+      <c r="AN18" s="40">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AO18" s="41" t="e">
+      <c r="AO18" s="40" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP18" s="41" t="e">
+      <c r="AP18" s="40" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="15.95" customHeight="1">
+    <row r="19" spans="1:42" ht="16" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="42">
+      <c r="B19" s="41">
         <v>7</v>
       </c>
-      <c r="C19" s="199"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44" t="str">
+      <c r="C19" s="172"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H19" s="45" t="str">
+      <c r="H19" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I19" s="199"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="200"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44" t="str">
+      <c r="I19" s="172"/>
+      <c r="J19" s="173"/>
+      <c r="K19" s="173"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N19" s="45" t="str">
+      <c r="N19" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O19" s="199"/>
-      <c r="P19" s="200"/>
-      <c r="Q19" s="200"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="44" t="str">
+      <c r="O19" s="172"/>
+      <c r="P19" s="173"/>
+      <c r="Q19" s="173"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="43" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="T19" s="45" t="str">
+      <c r="T19" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U19" s="46"/>
-      <c r="V19" s="47" t="str">
+      <c r="U19" s="45"/>
+      <c r="V19" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W19" s="8"/>
+      <c r="W19" s="7"/>
       <c r="Z19" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -10627,110 +11194,110 @@
         <f>IF(COUNT(V13:V22)=10,((MAX(V13:V22))-(MIN(Z13:Z22))),"")</f>
         <v/>
       </c>
-      <c r="AC19" s="41" t="str">
+      <c r="AC19" s="40" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AD19" s="41" t="e">
+      <c r="AD19" s="40" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE19" s="41" t="str">
+      <c r="AE19" s="40" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AF19" s="41" t="e">
+      <c r="AF19" s="40" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG19" s="41" t="str">
+      <c r="AG19" s="40" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AH19" s="41" t="e">
+      <c r="AH19" s="40" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI19" s="41" t="str">
+      <c r="AI19" s="40" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AJ19" s="41">
+      <c r="AJ19" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AK19" s="41" t="str">
+      <c r="AK19" s="40" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AL19" s="41">
+      <c r="AL19" s="40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AM19" s="41" t="str">
+      <c r="AM19" s="40" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AN19" s="41">
+      <c r="AN19" s="40">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AO19" s="41" t="e">
+      <c r="AO19" s="40" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP19" s="41" t="e">
+      <c r="AP19" s="40" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="15.95" customHeight="1">
+    <row r="20" spans="1:42" ht="16" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="42">
+      <c r="B20" s="41">
         <v>8</v>
       </c>
-      <c r="C20" s="199"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44" t="str">
+      <c r="C20" s="172"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H20" s="45" t="str">
+      <c r="H20" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I20" s="199"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="200"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44" t="str">
+      <c r="I20" s="172"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="43" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N20" s="45" t="str">
+      <c r="N20" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O20" s="199"/>
-      <c r="P20" s="200"/>
-      <c r="Q20" s="200"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="44" t="str">
+      <c r="O20" s="172"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="43" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="T20" s="45" t="str">
+      <c r="T20" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U20" s="46"/>
-      <c r="V20" s="47" t="str">
+      <c r="U20" s="45"/>
+      <c r="V20" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W20" s="8"/>
+      <c r="W20" s="7"/>
       <c r="Z20" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -10739,110 +11306,110 @@
         <f>IF(COUNT(V13:V22)=9,((MAX(V13:V21))-(MIN(Z13:Z21))),AB19)</f>
         <v/>
       </c>
-      <c r="AC20" s="41" t="str">
+      <c r="AC20" s="40" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AD20" s="41" t="e">
+      <c r="AD20" s="40" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE20" s="41" t="str">
+      <c r="AE20" s="40" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AF20" s="41" t="e">
+      <c r="AF20" s="40" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG20" s="41" t="str">
+      <c r="AG20" s="40" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AH20" s="41" t="e">
+      <c r="AH20" s="40" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI20" s="41" t="str">
+      <c r="AI20" s="40" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AJ20" s="41">
+      <c r="AJ20" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AK20" s="41" t="str">
+      <c r="AK20" s="40" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AL20" s="41">
+      <c r="AL20" s="40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AM20" s="41" t="str">
+      <c r="AM20" s="40" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AN20" s="41">
+      <c r="AN20" s="40">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AO20" s="41" t="e">
+      <c r="AO20" s="40" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP20" s="41" t="e">
+      <c r="AP20" s="40" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="15.95" customHeight="1">
+    <row r="21" spans="1:42" ht="16" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="42">
+      <c r="B21" s="41">
         <v>9</v>
       </c>
-      <c r="C21" s="199"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44" t="str">
+      <c r="C21" s="172"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H21" s="45" t="str">
+      <c r="H21" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I21" s="199"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="200"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44" t="str">
+      <c r="I21" s="172"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="43" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N21" s="45" t="str">
+      <c r="N21" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O21" s="199"/>
-      <c r="P21" s="200"/>
-      <c r="Q21" s="200"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="44" t="str">
+      <c r="O21" s="172"/>
+      <c r="P21" s="173"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="43" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="T21" s="45" t="str">
+      <c r="T21" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U21" s="46"/>
-      <c r="V21" s="47" t="str">
+      <c r="U21" s="45"/>
+      <c r="V21" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W21" s="8"/>
+      <c r="W21" s="7"/>
       <c r="Z21" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -10851,110 +11418,110 @@
         <f>IF(COUNT(V13:V22)=8,((MAX(V13:V20))-(MIN(Z13:Z20))),AB20)</f>
         <v/>
       </c>
-      <c r="AC21" s="41" t="str">
+      <c r="AC21" s="40" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AD21" s="41" t="e">
+      <c r="AD21" s="40" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE21" s="41" t="str">
+      <c r="AE21" s="40" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AF21" s="41" t="e">
+      <c r="AF21" s="40" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG21" s="41" t="str">
+      <c r="AG21" s="40" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AH21" s="41" t="e">
+      <c r="AH21" s="40" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI21" s="41" t="str">
+      <c r="AI21" s="40" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AJ21" s="41">
+      <c r="AJ21" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AK21" s="41" t="str">
+      <c r="AK21" s="40" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AL21" s="41">
+      <c r="AL21" s="40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AM21" s="41" t="str">
+      <c r="AM21" s="40" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AN21" s="41">
+      <c r="AN21" s="40">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AO21" s="41" t="e">
+      <c r="AO21" s="40" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP21" s="41" t="e">
+      <c r="AP21" s="40" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="15.95" customHeight="1" thickBot="1">
+    <row r="22" spans="1:42" ht="16" customHeight="1" thickBot="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="42">
+      <c r="B22" s="41">
         <v>10</v>
       </c>
-      <c r="C22" s="199"/>
-      <c r="D22" s="200"/>
-      <c r="E22" s="200"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44" t="str">
+      <c r="C22" s="172"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="45" t="str">
+      <c r="H22" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I22" s="199"/>
-      <c r="J22" s="200"/>
-      <c r="K22" s="200"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="44" t="str">
+      <c r="I22" s="172"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="43" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N22" s="45" t="str">
+      <c r="N22" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O22" s="199"/>
-      <c r="P22" s="200"/>
-      <c r="Q22" s="200"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="44" t="str">
+      <c r="O22" s="172"/>
+      <c r="P22" s="173"/>
+      <c r="Q22" s="173"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="43" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="T22" s="45" t="str">
+      <c r="T22" s="44" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="U22" s="48"/>
-      <c r="V22" s="49" t="str">
+      <c r="U22" s="47"/>
+      <c r="V22" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="W22" s="8"/>
+      <c r="W22" s="7"/>
       <c r="Z22" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -10963,109 +11530,109 @@
         <f>IF(COUNT(V13:V22)=7,((MAX(V13:V19))-(MIN(Z13:Z19))),AB21)</f>
         <v/>
       </c>
-      <c r="AC22" s="41" t="str">
+      <c r="AC22" s="40" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AD22" s="41" t="e">
+      <c r="AD22" s="40" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE22" s="41" t="str">
+      <c r="AE22" s="40" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AF22" s="41" t="e">
+      <c r="AF22" s="40" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG22" s="41" t="str">
+      <c r="AG22" s="40" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AH22" s="41" t="e">
+      <c r="AH22" s="40" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI22" s="41" t="str">
+      <c r="AI22" s="40" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AJ22" s="41">
+      <c r="AJ22" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AK22" s="41" t="str">
+      <c r="AK22" s="40" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AL22" s="41">
+      <c r="AL22" s="40">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AM22" s="41" t="str">
+      <c r="AM22" s="40" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AN22" s="41">
+      <c r="AN22" s="40">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AO22" s="41" t="e">
+      <c r="AO22" s="40" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP22" s="41" t="e">
+      <c r="AP22" s="40" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="15.95" customHeight="1" thickTop="1">
+    <row r="23" spans="1:42" ht="16" customHeight="1" thickTop="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52" t="s">
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="53" t="str">
+      <c r="G23" s="52" t="str">
         <f>IF(AND((COUNT(G13:G22)&gt;4),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),AC23," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="52" t="s">
+      <c r="H23" s="53"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="M23" s="53" t="str">
+      <c r="M23" s="52" t="str">
         <f>IF(AND((COUNT(M13:M22)&gt;4),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),AD23," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N23" s="55"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="52" t="s">
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="S23" s="53" t="str">
+      <c r="S23" s="52" t="str">
         <f>IF(AND((COUNT(S13:S22)&gt;4),((COUNT(I13:I22)+COUNT(J13:J22))=(COUNT(O13:O22)+COUNT(P13:P22)))),AE23," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T23" s="56"/>
-      <c r="U23" s="57" t="s">
+      <c r="T23" s="54"/>
+      <c r="U23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="V23" s="58" t="str">
+      <c r="V23" s="56" t="str">
         <f>IF(COUNT(V13:V22)&gt;4,SUM(V13:V22)/COUNT(V13:V22)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W23" s="8"/>
+      <c r="W23" s="7"/>
       <c r="AB23" t="str">
         <f>IF(COUNT(V13:V22)=6,((MAX(V13:V18))-(MIN(Z13:Z18))),AB22)</f>
         <v/>
@@ -11083,49 +11650,49 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="15.95" customHeight="1">
+    <row r="24" spans="1:42" ht="16" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61" t="s">
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63" t="str">
+      <c r="G24" s="60"/>
+      <c r="H24" s="61" t="str">
         <f>IF(AND((COUNT(H13:H22)&gt;4),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),AC24," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I24" s="213" t="s">
+      <c r="I24" s="186" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="61" t="s">
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="62"/>
-      <c r="N24" s="63" t="str">
+      <c r="M24" s="60"/>
+      <c r="N24" s="61" t="str">
         <f>IF(AND((COUNT(N13:N22)&gt;4),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),AD24," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="61" t="s">
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="S24" s="64"/>
-      <c r="T24" s="63" t="str">
+      <c r="S24" s="62"/>
+      <c r="T24" s="61" t="str">
         <f>IF(AND((COUNT(T13:T22)&gt;4),((COUNT(I13:I22)+COUNT(J13:J22))=(COUNT(O13:O22)+COUNT(P13:P22)))),AE24," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U24" s="65"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="8"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="7"/>
       <c r="AB24" t="str">
         <f>IF(COUNT(V13:V22)=5,((MAX(V13:V17))-(MIN(Z13:Z17))),AB23)</f>
         <v/>
@@ -11143,45 +11710,45 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="15.95" customHeight="1">
+    <row r="25" spans="1:42" ht="16" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="72" t="str">
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="70" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),(COUNT(H13:H22)=COUNT(N13:N22))),AA25," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I25" s="214" t="s">
+      <c r="I25" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="73" t="s">
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="V25" s="74" t="str">
+      <c r="V25" s="72" t="str">
         <f>AB25</f>
         <v/>
       </c>
-      <c r="W25" s="8"/>
-      <c r="AA25" s="41" t="e">
+      <c r="W25" s="7"/>
+      <c r="AA25" s="40" t="e">
         <f>IF(COUNT(H24,N24,T24)=3,(H24+N24+T24)/3,(H24+N24)/2)</f>
         <v>#VALUE!</v>
       </c>
@@ -11190,191 +11757,183 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="15.95" customHeight="1">
+    <row r="26" spans="1:42" ht="16" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="80" t="str">
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="78" t="str">
         <f>IF(COUNT(G23,M23,S23)=3,(MAX(G23,M23,S23)-MIN(G23,M23,S23)),Z26)</f>
         <v/>
       </c>
-      <c r="I26" s="215" t="s">
+      <c r="I26" s="188" t="s">
         <v>134</v>
       </c>
-      <c r="J26" s="77"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="8"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="7"/>
       <c r="Z26" t="str">
         <f>IF(COUNT(G23,M23,S23)=2,(MAX(G23,M23)-MIN(G23,M23)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="15.95" customHeight="1">
+    <row r="27" spans="1:42" ht="16" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="77">
+      <c r="E27" s="75">
         <v>3.27</v>
       </c>
-      <c r="F27" s="86" t="s">
+      <c r="F27" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="87">
+      <c r="G27" s="84">
         <v>2.58</v>
       </c>
-      <c r="H27" s="88" t="s">
+      <c r="H27" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="80" t="str">
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="78" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),AA27," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="8"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="7"/>
       <c r="AA27" t="e">
         <f>IF(AND(COUNT(E13:E22)&gt;4,((COUNT(C13:C22)+COUNT(D13:D22)+COUNT(E13:E22))=(COUNT(I13:I22)+COUNT(J13:J22)+COUNT(K13:K22)))),H25*G27,H25*E27)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="15.95" customHeight="1" thickBot="1">
+    <row r="28" spans="1:42" ht="16" customHeight="1" thickBot="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="90" t="s">
+      <c r="C28" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="91" t="s">
+      <c r="D28" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="92">
+      <c r="E28" s="89">
         <v>0</v>
       </c>
-      <c r="F28" s="93" t="s">
+      <c r="F28" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="94"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="97" t="str">
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="93" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),H25*E28," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="99"/>
-      <c r="W28" s="8"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="7"/>
     </row>
     <row r="29" spans="1:42" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="8"/>
-      <c r="Z29" s="105" t="s">
+      <c r="B29" s="96"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="40"/>
+      <c r="W29" s="7"/>
+      <c r="Z29" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="AA29" s="105" t="s">
+      <c r="AA29" s="76" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:42" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="106" t="s">
+      <c r="B30" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="107"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="204"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="107" t="s">
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="177"/>
+      <c r="K30" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="109"/>
-      <c r="P30" s="110" t="s">
+      <c r="M30" s="101"/>
+      <c r="N30" s="103"/>
+      <c r="P30" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="111" t="str">
+      <c r="Q30" s="105" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),AB30," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="8"/>
+      <c r="W30" s="7"/>
       <c r="AB30" t="e">
         <f>IF(AND(COUNT(E13:E22)&gt;4,((COUNT(C13:C22)+COUNT(D13:D22)+COUNT(E13:E22))=(COUNT(I13:I22)+COUNT(J13:J22)+COUNT(K13:K22)))),H25*O31,H25*M31)</f>
         <v>#VALUE!</v>
@@ -11382,291 +11941,254 @@
     </row>
     <row r="31" spans="1:42" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="218"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="112" t="s">
+      <c r="C31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="191"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="M31" s="113">
+      <c r="M31" s="107">
         <v>0.88619999999999999</v>
       </c>
-      <c r="N31" s="113" t="s">
+      <c r="N31" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="O31" s="113">
+      <c r="O31" s="107">
         <v>0.59079999999999999</v>
       </c>
-      <c r="P31" s="110" t="s">
+      <c r="P31" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="8"/>
+      <c r="W31" s="7"/>
       <c r="X31">
         <f>5.5*0.2225/1.4</f>
         <v>0.87410714285714297</v>
       </c>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="115"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="108"/>
     </row>
     <row r="32" spans="1:42" ht="15" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="108"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="8"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="115" t="str">
+      <c r="B32" s="100"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="101"/>
+      <c r="W32" s="7"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="108" t="str">
         <f>IF(Z32=0," "," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="15" customHeight="1" thickBot="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107" t="s">
+      <c r="B33" s="100"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="117" t="s">
+      <c r="M33" s="101"/>
+      <c r="N33" s="109"/>
+      <c r="O33" s="104"/>
+      <c r="P33" s="104"/>
+      <c r="Q33" s="104"/>
+      <c r="S33" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="8"/>
-      <c r="Z33" s="41">
+      <c r="W33" s="7"/>
+      <c r="Z33" s="40">
         <v>4</v>
       </c>
-      <c r="AA33" s="115" t="str">
+      <c r="AA33" s="108" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),COUNT($G$13:$G$22)&lt;5),"",AA32)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="34" spans="1:33" ht="15" customHeight="1" thickTop="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="107"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="110" t="s">
+      <c r="C34" s="101"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="101"/>
+      <c r="K34" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="110"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="119"/>
-      <c r="O34" s="110"/>
-      <c r="P34" s="110"/>
-      <c r="Q34" s="110"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="120"/>
-      <c r="T34" s="121" t="s">
+      <c r="L34" s="104"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="104"/>
+      <c r="P34" s="104"/>
+      <c r="Q34" s="104"/>
+      <c r="S34" s="112"/>
+      <c r="T34" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="U34" s="122" t="s">
+      <c r="U34" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="V34" s="123"/>
-      <c r="W34" s="8"/>
-      <c r="Z34" s="41">
+      <c r="V34" s="115"/>
+      <c r="W34" s="7"/>
+      <c r="Z34" s="40">
         <v>5</v>
       </c>
-      <c r="AA34" s="115" t="str">
+      <c r="AA34" s="108" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),COUNT($G$13:$G$22)=5),$V$25*$I39,AA33)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="35" spans="1:33" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="125" t="s">
+      <c r="B35" s="100"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="N35" s="80" t="str">
+      <c r="N35" s="78" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),AC35," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O35" s="119"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="110"/>
-      <c r="S35" s="126"/>
-      <c r="T35" s="127" t="s">
+      <c r="O35" s="111"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="118"/>
+      <c r="T35" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="U35" s="128" t="s">
+      <c r="U35" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="129"/>
-      <c r="W35" s="8"/>
-      <c r="Z35" s="41">
+      <c r="V35" s="121"/>
+      <c r="W35" s="7"/>
+      <c r="Z35" s="40">
         <v>6</v>
       </c>
-      <c r="AA35" s="115" t="str">
+      <c r="AA35" s="108" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),COUNT($G$13:$G$22)=6),$V$25*$I40,AA34)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AC35" s="41" t="e">
+      <c r="AC35" s="40" t="e">
         <f>IF(AND(COUNT(S13:S22)&gt;4,(COUNT(I13:I22)+COUNT(J13:J22)+COUNT(K13:K22))=(COUNT(O13:O22)+COUNT(P13:P22)+COUNT(Q13:Q22))),AD35,AE35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD35" s="41" t="e">
+      <c r="AD35" s="40" t="e">
         <f>IF(((Q30*Q30)/(COUNT(S13:S22)*COUNT(O13:Q13)))&gt;=((H26*O36)*(H26*O36)),0,SQRT(((H26*O36)*(H26*O36))-((Q30*Q30)/(COUNT(S13:S22)*COUNT(O13:Q13)))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AE35" s="41" t="e">
+      <c r="AE35" s="40" t="e">
         <f>IF(((Q30*Q30)/(COUNT(M13:M22)*COUNT(I13:K13)))&gt;=((H26*M36)*(H26*M36)),0,SQRT(((H26*M36)*(H26*M36))-((Q30*Q30)/(COUNT(M13:M22)*COUNT(I13:K13)))))</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:33" ht="15" customHeight="1" thickTop="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="100"/>
+      <c r="C36" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="108"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="112" t="s">
+      <c r="D36" s="102"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="83"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="M36" s="113">
+      <c r="M36" s="107">
         <v>0.70709999999999995</v>
       </c>
-      <c r="N36" s="113" t="s">
+      <c r="N36" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="O36" s="130">
+      <c r="O36" s="122">
         <v>0.52310000000000001</v>
       </c>
-      <c r="P36" s="110" t="s">
+      <c r="P36" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="120"/>
-      <c r="T36" s="131"/>
-      <c r="U36" s="132"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="8"/>
-      <c r="Z36" s="41">
+      <c r="S36" s="112"/>
+      <c r="T36" s="123"/>
+      <c r="U36" s="124"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="7"/>
+      <c r="Z36" s="40">
         <v>7</v>
       </c>
-      <c r="AA36" s="115" t="str">
+      <c r="AA36" s="108" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),COUNT($G$13:$G$22)=7),$V$25*$I41,AA35)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AE36" s="216" t="s">
+      <c r="AE36" s="189" t="s">
         <v>136</v>
       </c>
-      <c r="AF36" s="216"/>
-      <c r="AG36" s="216"/>
+      <c r="AF36" s="189"/>
+      <c r="AG36" s="189"/>
     </row>
     <row r="37" spans="1:33" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="133"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="134"/>
-      <c r="I37" s="135"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="5" t="s">
+      <c r="B37" s="100"/>
+      <c r="C37" s="125"/>
+      <c r="F37" s="101"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="127"/>
+      <c r="K37" s="104"/>
+      <c r="L37" t="s">
         <v>36</v>
       </c>
-      <c r="M37" s="113"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="136"/>
-      <c r="P37" s="137"/>
-      <c r="Q37" s="114"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="73" t="s">
+      <c r="M37" s="107"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="128"/>
+      <c r="P37" s="129"/>
+      <c r="S37" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="T37" s="138" t="str">
+      <c r="T37" s="130" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),AC37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U37" s="139"/>
-      <c r="V37" s="140" t="str">
+      <c r="U37" s="131"/>
+      <c r="V37" s="132" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),(Q30/D39)*100," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W37" s="8"/>
-      <c r="Z37" s="41">
+      <c r="W37" s="7"/>
+      <c r="Z37" s="40">
         <v>8</v>
       </c>
-      <c r="AA37" s="115" t="str">
+      <c r="AA37" s="108" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),COUNT($G$13:$G$22)=8),$V$25*$I42,AA36)</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -11674,95 +12196,79 @@
         <f>IF(I30&gt;0,(6*Q30/I30)*100," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AE37" s="217" t="s">
+      <c r="AE37" s="190" t="s">
         <v>135</v>
       </c>
-      <c r="AF37" s="216"/>
-      <c r="AG37" s="216"/>
+      <c r="AF37" s="189"/>
+      <c r="AG37" s="189"/>
     </row>
     <row r="38" spans="1:33" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="141" t="s">
+      <c r="B38" s="100"/>
+      <c r="C38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="H38" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="I38" s="142" t="s">
+      <c r="I38" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="107"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="138"/>
-      <c r="U38" s="139"/>
-      <c r="V38" s="143"/>
-      <c r="W38" s="8"/>
-      <c r="Z38" s="41">
+      <c r="K38" s="101"/>
+      <c r="S38" s="71"/>
+      <c r="T38" s="130"/>
+      <c r="U38" s="131"/>
+      <c r="V38" s="132"/>
+      <c r="W38" s="7"/>
+      <c r="Z38" s="40">
         <v>9</v>
       </c>
-      <c r="AA38" s="115" t="str">
+      <c r="AA38" s="108" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),COUNT($G$13:$G$22)=9),$V$25*$I43,AA37)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="39" spans="1:33" ht="15" customHeight="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="106" t="s">
+      <c r="B39" s="100"/>
+      <c r="C39" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="80" t="str">
+      <c r="D39" s="78" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),SQRT((O41*O41)+(O43*O43))," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E39" s="107"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="144">
+      <c r="E39" s="101"/>
+      <c r="H39" s="135">
         <v>5</v>
       </c>
-      <c r="I39" s="145">
+      <c r="I39" s="136">
         <v>0.40300000000000002</v>
       </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="107" t="s">
+      <c r="K39" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="146"/>
-      <c r="O39" s="118"/>
-      <c r="P39" s="119"/>
-      <c r="Q39" s="110"/>
-      <c r="R39" s="110"/>
-      <c r="S39" s="73" t="s">
+      <c r="N39" s="137"/>
+      <c r="O39" s="83"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="T39" s="138" t="str">
+      <c r="T39" s="130" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),AC39," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U39" s="139"/>
-      <c r="V39" s="140" t="str">
+      <c r="U39" s="131"/>
+      <c r="V39" s="132" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),(N35/D39)*100," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W39" s="8"/>
-      <c r="Z39" s="41">
+      <c r="W39" s="7"/>
+      <c r="Z39" s="40">
         <v>10</v>
       </c>
-      <c r="AA39" s="115" t="str">
+      <c r="AA39" s="108" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),COUNT($G$13:$G$22)=10),$V$25*$I44,AA38)</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -11777,74 +12283,64 @@
     </row>
     <row r="40" spans="1:33" ht="15" customHeight="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="144">
+      <c r="B40" s="100"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="135">
         <v>6</v>
       </c>
-      <c r="I40" s="145">
+      <c r="I40" s="136">
         <v>0.37419999999999998</v>
       </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="147"/>
-      <c r="L40" s="107"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="146"/>
-      <c r="O40" s="118"/>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="110"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="138"/>
-      <c r="U40" s="139"/>
-      <c r="V40" s="143"/>
-      <c r="W40" s="8"/>
+      <c r="K40" s="138"/>
+      <c r="L40" s="101"/>
+      <c r="N40" s="137"/>
+      <c r="O40" s="83"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="104"/>
+      <c r="S40" s="71"/>
+      <c r="T40" s="130"/>
+      <c r="U40" s="131"/>
+      <c r="V40" s="132"/>
+      <c r="W40" s="7"/>
     </row>
     <row r="41" spans="1:33" ht="15" customHeight="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="144">
+      <c r="C41" s="101"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="135">
         <v>7</v>
       </c>
-      <c r="I41" s="145">
+      <c r="I41" s="136">
         <v>0.35339999999999999</v>
       </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="148" t="s">
+      <c r="K41" s="101"/>
+      <c r="N41" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="O41" s="80" t="str">
+      <c r="O41" s="78" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),SQRT((Q30*Q30)+(N35*N35))," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="110"/>
-      <c r="R41" s="110"/>
-      <c r="S41" s="73" t="s">
+      <c r="Q41" s="104"/>
+      <c r="R41" s="104"/>
+      <c r="S41" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="T41" s="138" t="str">
+      <c r="T41" s="130" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),AC41," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U41" s="139"/>
-      <c r="V41" s="140" t="str">
+      <c r="U41" s="131"/>
+      <c r="V41" s="132" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),(O43/D39)*100," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W41" s="8"/>
+      <c r="W41" s="7"/>
       <c r="AC41" t="str">
         <f>IF(I30&gt;0,(6*O43/I30)*100," ")</f>
         <v xml:space="preserve"> </v>
@@ -11852,32 +12348,26 @@
     </row>
     <row r="42" spans="1:33" ht="15" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="144">
+      <c r="C42" s="101"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="135">
         <v>8</v>
       </c>
-      <c r="I42" s="145">
+      <c r="I42" s="136">
         <v>0.33750000000000002</v>
       </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="150"/>
-      <c r="P42" s="110"/>
-      <c r="Q42" s="110"/>
-      <c r="R42" s="110"/>
-      <c r="S42" s="73"/>
-      <c r="T42" s="138"/>
-      <c r="U42" s="139"/>
-      <c r="V42" s="143"/>
-      <c r="W42" s="8"/>
+      <c r="O42" s="141"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="104"/>
+      <c r="R42" s="104"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="130"/>
+      <c r="U42" s="131"/>
+      <c r="V42" s="132"/>
+      <c r="W42" s="7"/>
       <c r="AC42" t="str">
         <f>IF(I30&gt;0,(6*O41/I30)*100," ")</f>
         <v xml:space="preserve"> </v>
@@ -11885,47 +12375,44 @@
     </row>
     <row r="43" spans="1:33" ht="15" customHeight="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="151">
+      <c r="C43" s="101"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="142">
         <v>9</v>
       </c>
-      <c r="I43" s="145">
+      <c r="I43" s="136">
         <v>0.32490000000000002</v>
       </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="107" t="s">
+      <c r="K43" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="L43" s="5"/>
-      <c r="M43" s="146"/>
-      <c r="N43" s="118" t="s">
+      <c r="M43" s="137"/>
+      <c r="N43" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="O43" s="80" t="str">
+      <c r="O43" s="78" t="str">
         <f>AA39</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P43" s="110"/>
-      <c r="Q43" s="110"/>
-      <c r="R43" s="110"/>
-      <c r="S43" s="73" t="s">
+      <c r="P43" s="104"/>
+      <c r="Q43" s="104"/>
+      <c r="R43" s="104"/>
+      <c r="S43" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="T43" s="201" t="str">
+      <c r="T43" s="174" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),AC42," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U43" s="139"/>
-      <c r="V43" s="140" t="str">
+      <c r="U43" s="131"/>
+      <c r="V43" s="132" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),(O41/D39)*100," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W43" s="8"/>
+      <c r="W43" s="7"/>
       <c r="Z43" t="str">
         <f>IF((T43)&lt;=10,"MEASUREMENT SYSTEM IS ACCEPTABLE",Z44)</f>
         <v>MEASUREMENT SYSTEM IS UNACCEPTABLE AND NEEDS IMPROVEMENT</v>
@@ -11933,34 +12420,27 @@
     </row>
     <row r="44" spans="1:33" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="152">
+      <c r="C44" s="101"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="143">
         <v>10</v>
       </c>
-      <c r="I44" s="153">
+      <c r="I44" s="144">
         <v>0.31459999999999999</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5" t="s">
+      <c r="L44" t="s">
         <v>81</v>
       </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="110"/>
-      <c r="R44" s="110"/>
-      <c r="S44" s="154"/>
-      <c r="T44" s="155"/>
-      <c r="U44" s="156"/>
-      <c r="V44" s="157"/>
-      <c r="W44" s="8"/>
+      <c r="Q44" s="104"/>
+      <c r="R44" s="104"/>
+      <c r="S44" s="145"/>
+      <c r="T44" s="146"/>
+      <c r="U44" s="147"/>
+      <c r="V44" s="148"/>
+      <c r="W44" s="7"/>
       <c r="Z44" t="str">
         <f>IF(T43&lt;=30,"MEASUREMENT SYSTEM IS MARGINAL","MEASUREMENT SYSTEM IS UNACCEPTABLE AND NEEDS IMPROVEMENT")</f>
         <v>MEASUREMENT SYSTEM IS UNACCEPTABLE AND NEEDS IMPROVEMENT</v>
@@ -11968,57 +12448,45 @@
     </row>
     <row r="45" spans="1:33" ht="15" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="158"/>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="159"/>
-      <c r="R45" s="110"/>
-      <c r="S45" s="110"/>
-      <c r="T45" s="110"/>
-      <c r="U45" s="114"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="8"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="101"/>
+      <c r="O45" s="149"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="150"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="104"/>
+      <c r="T45" s="104"/>
+      <c r="W45" s="7"/>
     </row>
     <row r="46" spans="1:33" ht="15" customHeight="1">
       <c r="A46" s="4"/>
-      <c r="B46" s="160" t="s">
+      <c r="B46" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="107"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="149"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="107"/>
-      <c r="K46" s="161"/>
-      <c r="L46" s="162" t="s">
+      <c r="C46" s="101"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="140"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="101"/>
+      <c r="K46" s="152"/>
+      <c r="L46" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="M46" s="146"/>
-      <c r="N46" s="118"/>
-      <c r="O46" s="119"/>
-      <c r="P46" s="110"/>
-      <c r="Q46" s="110"/>
-      <c r="R46" s="110"/>
-      <c r="S46" s="110"/>
-      <c r="T46" s="110"/>
-      <c r="U46" s="114"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="8"/>
+      <c r="M46" s="137"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="104"/>
+      <c r="Q46" s="104"/>
+      <c r="R46" s="104"/>
+      <c r="S46" s="104"/>
+      <c r="T46" s="104"/>
+      <c r="W46" s="7"/>
       <c r="Z46" t="str">
         <f>IF((V43)&lt;=10,"MEASUREMENT SYSTEM IS ACCEPTABLE",Z47)</f>
         <v>MEASUREMENT SYSTEM IS UNACCEPTABLE AND NEEDS IMPROVEMENT</v>
@@ -12026,32 +12494,29 @@
     </row>
     <row r="47" spans="1:33" ht="15" customHeight="1">
       <c r="A47" s="4"/>
-      <c r="B47" s="160" t="s">
+      <c r="B47" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="107"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="161"/>
-      <c r="L47" s="107"/>
-      <c r="M47" s="162" t="s">
+      <c r="C47" s="101"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
+      <c r="K47" s="152"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="N47" s="163"/>
-      <c r="O47" s="116"/>
-      <c r="P47" s="116"/>
-      <c r="Q47" s="110"/>
-      <c r="R47" s="110"/>
-      <c r="S47" s="110"/>
-      <c r="T47" s="110"/>
-      <c r="U47" s="114"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="8"/>
+      <c r="N47" s="154"/>
+      <c r="O47" s="109"/>
+      <c r="P47" s="109"/>
+      <c r="Q47" s="104"/>
+      <c r="R47" s="104"/>
+      <c r="S47" s="104"/>
+      <c r="T47" s="104"/>
+      <c r="W47" s="7"/>
       <c r="Z47" t="str">
         <f>IF(V43&lt;=30,"MEASUREMENT SYSTEM IS MARGINAL","MEASUREMENT SYSTEM IS UNACCEPTABLE AND NEEDS IMPROVEMENT")</f>
         <v>MEASUREMENT SYSTEM IS UNACCEPTABLE AND NEEDS IMPROVEMENT</v>
@@ -12059,87 +12524,81 @@
     </row>
     <row r="48" spans="1:33" ht="15" customHeight="1">
       <c r="A48" s="4"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="109"/>
-      <c r="K48" s="164"/>
-      <c r="L48" s="165"/>
-      <c r="M48" s="116" t="s">
+      <c r="C48" s="101"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="155"/>
+      <c r="L48" s="156"/>
+      <c r="M48" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="N48" s="163"/>
-      <c r="O48" s="116"/>
-      <c r="P48" s="116"/>
-      <c r="Q48" s="110"/>
-      <c r="R48" s="110"/>
-      <c r="S48" s="110"/>
-      <c r="T48" s="110"/>
-      <c r="U48" s="114"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="8"/>
+      <c r="N48" s="154"/>
+      <c r="O48" s="109"/>
+      <c r="P48" s="109"/>
+      <c r="Q48" s="104"/>
+      <c r="R48" s="104"/>
+      <c r="S48" s="104"/>
+      <c r="T48" s="104"/>
+      <c r="W48" s="7"/>
     </row>
     <row r="49" spans="1:26" ht="15" customHeight="1">
       <c r="A49" s="4"/>
-      <c r="B49" s="160" t="s">
+      <c r="B49" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="107"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="158"/>
-      <c r="K49" s="164"/>
-      <c r="L49" s="165"/>
-      <c r="M49" s="166"/>
-      <c r="N49" s="163"/>
-      <c r="O49" s="116" t="s">
+      <c r="C49" s="101"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="149"/>
+      <c r="K49" s="155"/>
+      <c r="L49" s="156"/>
+      <c r="M49" s="109"/>
+      <c r="N49" s="154"/>
+      <c r="O49" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="P49" s="116"/>
-      <c r="Q49" s="110"/>
-      <c r="R49" s="110"/>
-      <c r="S49" s="110"/>
-      <c r="T49" s="110"/>
-      <c r="U49" s="114"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="8"/>
+      <c r="P49" s="109"/>
+      <c r="Q49" s="104"/>
+      <c r="R49" s="104"/>
+      <c r="S49" s="104"/>
+      <c r="T49" s="104"/>
+      <c r="W49" s="7"/>
     </row>
     <row r="50" spans="1:26" ht="15" customHeight="1">
       <c r="A50" s="4"/>
-      <c r="B50" s="160" t="s">
+      <c r="B50" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="107"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="107"/>
-      <c r="G50" s="107"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="107"/>
-      <c r="J50" s="158"/>
-      <c r="K50" s="164"/>
-      <c r="L50" s="165"/>
-      <c r="M50" s="162" t="s">
+      <c r="C50" s="101"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="149"/>
+      <c r="K50" s="155"/>
+      <c r="L50" s="156"/>
+      <c r="M50" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="N50" s="108"/>
-      <c r="O50" s="110"/>
-      <c r="P50" s="110"/>
-      <c r="Q50" s="110"/>
-      <c r="R50" s="110"/>
-      <c r="S50" s="110"/>
-      <c r="T50" s="110"/>
-      <c r="U50" s="114"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="8"/>
+      <c r="N50" s="102"/>
+      <c r="O50" s="104"/>
+      <c r="P50" s="104"/>
+      <c r="Q50" s="104"/>
+      <c r="R50" s="104"/>
+      <c r="S50" s="104"/>
+      <c r="T50" s="104"/>
+      <c r="W50" s="7"/>
       <c r="Z50" t="str">
         <f>IF(V43&lt;=T43,Z46,Z43)</f>
         <v>MEASUREMENT SYSTEM IS UNACCEPTABLE AND NEEDS IMPROVEMENT</v>
@@ -12147,730 +12606,372 @@
     </row>
     <row r="51" spans="1:26" ht="15" customHeight="1">
       <c r="A51" s="4"/>
-      <c r="B51" s="162"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="107"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="107"/>
-      <c r="J51" s="158"/>
-      <c r="K51" s="164"/>
-      <c r="L51" s="165"/>
-      <c r="M51" s="107"/>
-      <c r="N51" s="110"/>
-      <c r="O51" s="116" t="s">
+      <c r="B51" s="153"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="101"/>
+      <c r="J51" s="149"/>
+      <c r="K51" s="155"/>
+      <c r="L51" s="156"/>
+      <c r="M51" s="101"/>
+      <c r="N51" s="104"/>
+      <c r="O51" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="P51" s="110"/>
-      <c r="Q51" s="110"/>
-      <c r="R51" s="110"/>
-      <c r="S51" s="110"/>
-      <c r="T51" s="110"/>
-      <c r="U51" s="114"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="8"/>
+      <c r="P51" s="104"/>
+      <c r="Q51" s="104"/>
+      <c r="R51" s="104"/>
+      <c r="S51" s="104"/>
+      <c r="T51" s="104"/>
+      <c r="W51" s="7"/>
     </row>
     <row r="52" spans="1:26" ht="15" customHeight="1">
       <c r="A52" s="4"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="158"/>
-      <c r="K52" s="107"/>
-      <c r="L52" s="162"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="110"/>
-      <c r="R52" s="110"/>
-      <c r="S52" s="110"/>
-      <c r="T52" s="110"/>
-      <c r="U52" s="114"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="8"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="149"/>
+      <c r="K52" s="101"/>
+      <c r="L52" s="153"/>
+      <c r="Q52" s="104"/>
+      <c r="R52" s="104"/>
+      <c r="S52" s="104"/>
+      <c r="T52" s="104"/>
+      <c r="W52" s="7"/>
     </row>
-    <row r="53" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="53" spans="1:26" ht="17.149999999999999" customHeight="1">
       <c r="A53" s="4"/>
-      <c r="B53" s="106"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="168" t="s">
+      <c r="B53" s="100"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="169"/>
-      <c r="F53" s="169"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="170"/>
-      <c r="I53" s="202" t="str">
+      <c r="G53" s="158"/>
+      <c r="H53" s="158"/>
+      <c r="I53" s="175" t="str">
         <f>IF(AND((COUNT(H24,N24,T24)&gt;1),((COUNT(C13:C22)+COUNT(D13:D22))=(COUNT(I13:I22)+COUNT(J13:J22)))),Z53," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J53" s="169"/>
-      <c r="K53" s="171"/>
-      <c r="L53" s="170"/>
-      <c r="M53" s="107"/>
-      <c r="N53" s="110"/>
-      <c r="O53" s="169"/>
-      <c r="P53" s="110"/>
-      <c r="Q53" s="110"/>
-      <c r="R53" s="110"/>
-      <c r="S53" s="110"/>
-      <c r="T53" s="110"/>
-      <c r="U53" s="114"/>
-      <c r="V53" s="114"/>
-      <c r="W53" s="8"/>
+      <c r="K53" s="159"/>
+      <c r="L53" s="158"/>
+      <c r="M53" s="101"/>
+      <c r="N53" s="104"/>
+      <c r="P53" s="104"/>
+      <c r="Q53" s="104"/>
+      <c r="R53" s="104"/>
+      <c r="S53" s="104"/>
+      <c r="T53" s="104"/>
+      <c r="W53" s="7"/>
       <c r="Z53" t="str">
         <f>IF(T43=0,Z46,Z50)</f>
         <v>MEASUREMENT SYSTEM IS UNACCEPTABLE AND NEEDS IMPROVEMENT</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="6.75" customHeight="1" thickBot="1">
-      <c r="A54" s="172"/>
-      <c r="B54" s="173"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="175"/>
-      <c r="E54" s="174"/>
-      <c r="F54" s="174"/>
-      <c r="G54" s="174"/>
-      <c r="H54" s="174"/>
-      <c r="I54" s="174"/>
-      <c r="J54" s="174"/>
-      <c r="K54" s="176"/>
-      <c r="L54" s="176"/>
-      <c r="M54" s="177"/>
-      <c r="N54" s="173"/>
-      <c r="O54" s="174"/>
-      <c r="P54" s="177"/>
-      <c r="Q54" s="178"/>
-      <c r="R54" s="178"/>
-      <c r="S54" s="177"/>
-      <c r="T54" s="177"/>
-      <c r="U54" s="179"/>
-      <c r="V54" s="180"/>
-      <c r="W54" s="181"/>
+      <c r="A54" s="160"/>
+      <c r="B54" s="161"/>
+      <c r="C54" s="162"/>
+      <c r="D54" s="163"/>
+      <c r="E54" s="162"/>
+      <c r="F54" s="162"/>
+      <c r="G54" s="162"/>
+      <c r="H54" s="162"/>
+      <c r="I54" s="162"/>
+      <c r="J54" s="162"/>
+      <c r="K54" s="164"/>
+      <c r="L54" s="164"/>
+      <c r="M54" s="165"/>
+      <c r="N54" s="161"/>
+      <c r="O54" s="162"/>
+      <c r="P54" s="165"/>
+      <c r="Q54" s="166"/>
+      <c r="R54" s="166"/>
+      <c r="S54" s="165"/>
+      <c r="T54" s="165"/>
+      <c r="U54" s="167"/>
+      <c r="V54" s="167"/>
+      <c r="W54" s="168"/>
     </row>
-    <row r="55" spans="1:26" ht="17.100000000000001" customHeight="1">
-      <c r="B55" s="182"/>
-      <c r="C55" s="183"/>
-      <c r="D55" s="184"/>
-      <c r="E55" s="183"/>
-      <c r="F55" s="183"/>
-      <c r="G55" s="183"/>
-      <c r="H55" s="183"/>
-      <c r="I55" s="183"/>
-      <c r="J55" s="183"/>
-      <c r="K55" s="183"/>
-      <c r="L55" s="183"/>
-      <c r="M55" s="185"/>
-      <c r="N55" s="186"/>
-      <c r="O55" s="182"/>
-      <c r="P55" s="183"/>
-      <c r="Q55" s="186"/>
-      <c r="R55" s="186"/>
-      <c r="S55" s="187"/>
-      <c r="T55" s="186"/>
-      <c r="U55" s="188"/>
+    <row r="55" spans="1:26" ht="17.149999999999999" customHeight="1">
+      <c r="B55" s="100"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="101"/>
+      <c r="J55" s="101"/>
+      <c r="K55" s="101"/>
+      <c r="L55" s="101"/>
+      <c r="M55" s="149"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="100"/>
+      <c r="P55" s="101"/>
+      <c r="Q55" s="104"/>
+      <c r="R55" s="104"/>
+      <c r="S55" s="140"/>
+      <c r="T55" s="104"/>
     </row>
-    <row r="56" spans="1:26" ht="17.100000000000001" customHeight="1">
-      <c r="B56" s="189"/>
-      <c r="C56" s="190"/>
-      <c r="D56" s="191"/>
-      <c r="E56" s="192"/>
-      <c r="F56" s="192"/>
-      <c r="G56" s="190"/>
-      <c r="H56" s="190"/>
-      <c r="I56" s="190"/>
-      <c r="J56" s="190"/>
-      <c r="K56" s="190"/>
-      <c r="L56" s="190"/>
-      <c r="M56" s="190"/>
-      <c r="N56" s="193"/>
-      <c r="O56" s="192"/>
-      <c r="P56" s="192"/>
-      <c r="Q56" s="192"/>
-      <c r="R56" s="192"/>
-      <c r="S56" s="192"/>
-      <c r="T56" s="192"/>
-      <c r="U56" s="194"/>
-      <c r="V56" s="194"/>
-      <c r="W56" s="194"/>
+    <row r="56" spans="1:26" ht="17.149999999999999" customHeight="1">
+      <c r="B56" s="100"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="169"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="101"/>
+      <c r="K56" s="101"/>
+      <c r="L56" s="101"/>
+      <c r="M56" s="101"/>
+      <c r="N56" s="102"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="104"/>
+      <c r="Q56" s="104"/>
+      <c r="R56" s="104"/>
+      <c r="S56" s="104"/>
+      <c r="T56" s="104"/>
     </row>
-    <row r="57" spans="1:26" ht="17.100000000000001" customHeight="1">
-      <c r="B57" s="189"/>
-      <c r="C57" s="190"/>
-      <c r="D57" s="193"/>
-      <c r="E57" s="190"/>
-      <c r="F57" s="190"/>
-      <c r="G57" s="190"/>
-      <c r="H57" s="190"/>
-      <c r="I57" s="190"/>
-      <c r="J57" s="190"/>
-      <c r="K57" s="190"/>
-      <c r="L57" s="190"/>
-      <c r="M57" s="190"/>
-      <c r="N57" s="193"/>
-      <c r="O57" s="192"/>
-      <c r="P57" s="192"/>
-      <c r="Q57" s="192"/>
-      <c r="R57" s="192"/>
-      <c r="S57" s="192"/>
-      <c r="T57" s="192"/>
-      <c r="U57" s="194"/>
+    <row r="57" spans="1:26" ht="17.149999999999999" customHeight="1">
+      <c r="B57" s="100"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="101"/>
+      <c r="L57" s="101"/>
+      <c r="M57" s="101"/>
+      <c r="N57" s="102"/>
+      <c r="O57" s="104"/>
+      <c r="P57" s="104"/>
+      <c r="Q57" s="104"/>
+      <c r="R57" s="104"/>
+      <c r="S57" s="104"/>
+      <c r="T57" s="104"/>
     </row>
-    <row r="58" spans="1:26" ht="17.100000000000001" customHeight="1">
-      <c r="B58" s="192"/>
-      <c r="C58" s="195"/>
-      <c r="D58" s="193"/>
-      <c r="E58" s="195"/>
-      <c r="F58" s="195"/>
-      <c r="G58" s="190"/>
-      <c r="H58" s="190"/>
-      <c r="I58" s="190"/>
-      <c r="J58" s="190"/>
-      <c r="K58" s="190"/>
-      <c r="L58" s="190"/>
-      <c r="M58" s="190"/>
-      <c r="N58" s="193"/>
-      <c r="O58" s="192"/>
-      <c r="P58" s="192"/>
-      <c r="Q58" s="192"/>
-      <c r="R58" s="192"/>
-      <c r="S58" s="192"/>
-      <c r="T58" s="192"/>
-      <c r="U58" s="194"/>
+    <row r="58" spans="1:26" ht="17.149999999999999" customHeight="1">
+      <c r="B58" s="104"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="101"/>
+      <c r="J58" s="101"/>
+      <c r="K58" s="101"/>
+      <c r="L58" s="101"/>
+      <c r="M58" s="101"/>
+      <c r="N58" s="102"/>
+      <c r="O58" s="104"/>
+      <c r="P58" s="104"/>
+      <c r="Q58" s="104"/>
+      <c r="R58" s="104"/>
+      <c r="S58" s="104"/>
+      <c r="T58" s="104"/>
     </row>
-    <row r="59" spans="1:26" ht="17.100000000000001" customHeight="1">
-      <c r="B59" s="189"/>
-      <c r="C59" s="190"/>
-      <c r="D59" s="193"/>
-      <c r="E59" s="187"/>
-      <c r="F59" s="187"/>
-      <c r="G59" s="190"/>
-      <c r="H59" s="190"/>
-      <c r="I59" s="190"/>
-      <c r="J59" s="190"/>
-      <c r="K59" s="190"/>
-      <c r="L59" s="190"/>
-      <c r="M59" s="190"/>
-      <c r="N59" s="193"/>
-      <c r="O59" s="192"/>
-      <c r="P59" s="192"/>
-      <c r="Q59" s="192"/>
-      <c r="R59" s="192"/>
-      <c r="S59" s="192"/>
-      <c r="T59" s="192"/>
-      <c r="U59" s="194"/>
+    <row r="59" spans="1:26" ht="17.149999999999999" customHeight="1">
+      <c r="B59" s="100"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="101"/>
+      <c r="K59" s="101"/>
+      <c r="L59" s="101"/>
+      <c r="M59" s="101"/>
+      <c r="N59" s="102"/>
+      <c r="O59" s="104"/>
+      <c r="P59" s="104"/>
+      <c r="Q59" s="104"/>
+      <c r="R59" s="104"/>
+      <c r="S59" s="104"/>
+      <c r="T59" s="104"/>
     </row>
-    <row r="60" spans="1:26" ht="17.100000000000001" customHeight="1">
-      <c r="B60" s="196"/>
-      <c r="C60" s="195"/>
-      <c r="D60" s="195"/>
-      <c r="E60" s="195"/>
-      <c r="F60" s="195"/>
-      <c r="G60" s="195"/>
-      <c r="H60" s="195"/>
-      <c r="I60" s="195"/>
-      <c r="J60" s="195"/>
-      <c r="K60" s="195"/>
-      <c r="L60" s="195"/>
-      <c r="M60" s="195"/>
-      <c r="N60" s="195"/>
-      <c r="O60" s="195"/>
-      <c r="P60" s="195"/>
-      <c r="Q60" s="195"/>
-      <c r="R60" s="195"/>
-      <c r="S60" s="195"/>
-      <c r="T60" s="195"/>
+    <row r="60" spans="1:26" ht="17.149999999999999" customHeight="1">
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="104"/>
+      <c r="K60" s="104"/>
+      <c r="L60" s="104"/>
+      <c r="M60" s="104"/>
+      <c r="N60" s="104"/>
+      <c r="O60" s="104"/>
+      <c r="P60" s="104"/>
+      <c r="Q60" s="104"/>
+      <c r="R60" s="104"/>
+      <c r="S60" s="104"/>
+      <c r="T60" s="104"/>
     </row>
     <row r="61" spans="1:26">
-      <c r="B61" s="192"/>
-      <c r="C61" s="195"/>
-      <c r="D61" s="195"/>
-      <c r="E61" s="195"/>
-      <c r="F61" s="195"/>
-      <c r="G61" s="195"/>
-      <c r="H61" s="195"/>
-      <c r="I61" s="195"/>
-      <c r="J61" s="195"/>
-      <c r="K61" s="195"/>
-      <c r="L61" s="195"/>
-      <c r="M61" s="195"/>
-      <c r="N61" s="195"/>
-      <c r="O61" s="195"/>
-      <c r="P61" s="195"/>
-      <c r="Q61" s="195"/>
-      <c r="R61" s="195"/>
-      <c r="S61" s="195"/>
-      <c r="T61" s="195"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="104"/>
+      <c r="K61" s="104"/>
+      <c r="L61" s="104"/>
+      <c r="M61" s="104"/>
+      <c r="N61" s="104"/>
+      <c r="O61" s="104"/>
+      <c r="P61" s="104"/>
+      <c r="Q61" s="104"/>
+      <c r="R61" s="104"/>
+      <c r="S61" s="104"/>
+      <c r="T61" s="104"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="B62" s="192"/>
-      <c r="C62" s="195"/>
-      <c r="D62" s="195"/>
-      <c r="E62" s="195"/>
-      <c r="F62" s="195"/>
-      <c r="G62" s="195"/>
-      <c r="H62" s="195"/>
-      <c r="I62" s="195"/>
-      <c r="J62" s="195"/>
-      <c r="K62" s="195"/>
-      <c r="L62" s="195"/>
-      <c r="M62" s="195"/>
-      <c r="N62" s="195"/>
-      <c r="O62" s="195"/>
-      <c r="P62" s="195"/>
-      <c r="Q62" s="195"/>
-      <c r="R62" s="195"/>
-      <c r="S62" s="195"/>
-      <c r="T62" s="195"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
+      <c r="I62" s="104"/>
+      <c r="J62" s="104"/>
+      <c r="K62" s="104"/>
+      <c r="L62" s="104"/>
+      <c r="M62" s="104"/>
+      <c r="N62" s="104"/>
+      <c r="O62" s="104"/>
+      <c r="P62" s="104"/>
+      <c r="Q62" s="104"/>
+      <c r="R62" s="104"/>
+      <c r="S62" s="104"/>
+      <c r="T62" s="104"/>
     </row>
     <row r="63" spans="1:26">
-      <c r="B63" s="192"/>
-      <c r="C63" s="195"/>
-      <c r="D63" s="195"/>
-      <c r="E63" s="195"/>
-      <c r="F63" s="195"/>
-      <c r="G63" s="195"/>
-      <c r="H63" s="195"/>
-      <c r="I63" s="195"/>
-      <c r="J63" s="195"/>
-      <c r="K63" s="195"/>
-      <c r="L63" s="195"/>
-      <c r="M63" s="195"/>
-      <c r="N63" s="195"/>
-      <c r="O63" s="195"/>
-      <c r="P63" s="195"/>
-      <c r="Q63" s="195"/>
-      <c r="R63" s="195"/>
-      <c r="S63" s="195"/>
-      <c r="T63" s="195"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="104"/>
+      <c r="G63" s="104"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="104"/>
+      <c r="K63" s="104"/>
+      <c r="L63" s="104"/>
+      <c r="M63" s="104"/>
+      <c r="N63" s="104"/>
+      <c r="O63" s="104"/>
+      <c r="P63" s="104"/>
+      <c r="Q63" s="104"/>
+      <c r="R63" s="104"/>
+      <c r="S63" s="104"/>
+      <c r="T63" s="104"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="B64" s="192"/>
-      <c r="C64" s="195"/>
-      <c r="D64" s="195"/>
-      <c r="E64" s="195"/>
-      <c r="F64" s="195"/>
-      <c r="G64" s="195"/>
-      <c r="H64" s="195"/>
-      <c r="I64" s="195"/>
-      <c r="J64" s="195"/>
-      <c r="K64" s="195"/>
-      <c r="L64" s="195"/>
-      <c r="M64" s="195"/>
-      <c r="N64" s="195"/>
-      <c r="O64" s="195"/>
-      <c r="P64" s="195"/>
-      <c r="Q64" s="195"/>
-      <c r="R64" s="195"/>
-      <c r="S64" s="195"/>
-      <c r="T64" s="195"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="104"/>
+      <c r="G64" s="104"/>
+      <c r="H64" s="104"/>
+      <c r="I64" s="104"/>
+      <c r="J64" s="104"/>
+      <c r="K64" s="104"/>
+      <c r="L64" s="104"/>
+      <c r="M64" s="104"/>
+      <c r="N64" s="104"/>
+      <c r="O64" s="104"/>
+      <c r="P64" s="104"/>
+      <c r="Q64" s="104"/>
+      <c r="R64" s="104"/>
+      <c r="S64" s="104"/>
+      <c r="T64" s="104"/>
     </row>
     <row r="65" spans="2:20">
-      <c r="B65" s="192"/>
-      <c r="C65" s="195"/>
-      <c r="D65" s="195"/>
-      <c r="E65" s="195"/>
-      <c r="F65" s="195"/>
-      <c r="G65" s="195"/>
-      <c r="H65" s="195"/>
-      <c r="I65" s="195"/>
-      <c r="J65" s="195"/>
-      <c r="K65" s="195"/>
-      <c r="L65" s="195"/>
-      <c r="M65" s="195"/>
-      <c r="N65" s="195"/>
-      <c r="O65" s="195"/>
-      <c r="P65" s="195"/>
-      <c r="Q65" s="195"/>
-      <c r="R65" s="195"/>
-      <c r="S65" s="195"/>
-      <c r="T65" s="195"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="104"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="104"/>
+      <c r="G65" s="104"/>
+      <c r="H65" s="104"/>
+      <c r="I65" s="104"/>
+      <c r="J65" s="104"/>
+      <c r="K65" s="104"/>
+      <c r="L65" s="104"/>
+      <c r="M65" s="104"/>
+      <c r="N65" s="104"/>
+      <c r="O65" s="104"/>
+      <c r="P65" s="104"/>
+      <c r="Q65" s="104"/>
+      <c r="R65" s="104"/>
+      <c r="S65" s="104"/>
+      <c r="T65" s="104"/>
     </row>
     <row r="66" spans="2:20">
-      <c r="B66" s="192"/>
-      <c r="C66" s="195"/>
-      <c r="D66" s="195"/>
-      <c r="E66" s="195"/>
-      <c r="F66" s="195"/>
-      <c r="G66" s="195"/>
-      <c r="H66" s="195"/>
-      <c r="I66" s="195"/>
-      <c r="J66" s="195"/>
-      <c r="K66" s="195"/>
-      <c r="L66" s="195"/>
-      <c r="M66" s="195"/>
-      <c r="N66" s="195"/>
-      <c r="O66" s="195"/>
-      <c r="P66" s="195"/>
-      <c r="Q66" s="195"/>
-      <c r="R66" s="195"/>
-      <c r="S66" s="195"/>
-      <c r="T66" s="195"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="104"/>
+      <c r="G66" s="104"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="104"/>
+      <c r="J66" s="104"/>
+      <c r="K66" s="104"/>
+      <c r="L66" s="104"/>
+      <c r="M66" s="104"/>
+      <c r="N66" s="104"/>
+      <c r="O66" s="104"/>
+      <c r="P66" s="104"/>
+      <c r="Q66" s="104"/>
+      <c r="R66" s="104"/>
+      <c r="S66" s="104"/>
+      <c r="T66" s="104"/>
     </row>
     <row r="67" spans="2:20">
-      <c r="B67" s="192"/>
-      <c r="C67" s="195"/>
-      <c r="D67" s="195"/>
-      <c r="E67" s="195"/>
-      <c r="F67" s="195"/>
-      <c r="G67" s="195"/>
-      <c r="H67" s="195"/>
-      <c r="I67" s="195"/>
-      <c r="J67" s="195"/>
-      <c r="K67" s="195"/>
-      <c r="L67" s="195"/>
-      <c r="M67" s="195"/>
-      <c r="N67" s="195"/>
-      <c r="O67" s="195"/>
-      <c r="P67" s="195"/>
-      <c r="Q67" s="195"/>
-      <c r="R67" s="195"/>
-      <c r="S67" s="195"/>
-      <c r="T67" s="195"/>
-    </row>
-    <row r="68" spans="2:20">
-      <c r="B68" s="194"/>
-    </row>
-    <row r="69" spans="2:20">
-      <c r="B69" s="194"/>
-    </row>
-    <row r="70" spans="2:20">
-      <c r="B70" s="194"/>
-    </row>
-    <row r="71" spans="2:20">
-      <c r="B71" s="194"/>
-    </row>
-    <row r="72" spans="2:20">
-      <c r="B72" s="194"/>
-    </row>
-    <row r="73" spans="2:20">
-      <c r="B73" s="194"/>
-    </row>
-    <row r="74" spans="2:20">
-      <c r="B74" s="194"/>
-    </row>
-    <row r="75" spans="2:20">
-      <c r="B75" s="194"/>
-    </row>
-    <row r="76" spans="2:20">
-      <c r="B76" s="194"/>
-    </row>
-    <row r="77" spans="2:20">
-      <c r="B77" s="194"/>
-    </row>
-    <row r="78" spans="2:20">
-      <c r="B78" s="194"/>
-    </row>
-    <row r="79" spans="2:20">
-      <c r="B79" s="194"/>
-    </row>
-    <row r="80" spans="2:20">
-      <c r="B80" s="194"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="194"/>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="194"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="194"/>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="194"/>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="194"/>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="194"/>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="194"/>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="194"/>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="194"/>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="194"/>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="194"/>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="194"/>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="194"/>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="194"/>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="194"/>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="194"/>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="194"/>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="194"/>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="194"/>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="194"/>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="194"/>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="194"/>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="194"/>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="194"/>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="194"/>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="194"/>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="194"/>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="194"/>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="194"/>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="194"/>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="194"/>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="194"/>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="194"/>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="194"/>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="194"/>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="194"/>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="194"/>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="194"/>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="194"/>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="194"/>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="194"/>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="194"/>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="194"/>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="194"/>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="194"/>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="194"/>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="194"/>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="194"/>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="194"/>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="194"/>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="194"/>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="194"/>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="194"/>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="194"/>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="194"/>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="194"/>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="194"/>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="194"/>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="194"/>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="194"/>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="194"/>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="194"/>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="194"/>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="194"/>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="194"/>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="194"/>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="194"/>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="194"/>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="194"/>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="194"/>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="194"/>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="194"/>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="194"/>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="194"/>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="194"/>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="194"/>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="194"/>
-    </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="194"/>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="194"/>
-    </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="194"/>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="194"/>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="194"/>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="194"/>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="194"/>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="194"/>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="194"/>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="194"/>
-    </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="194"/>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="194"/>
-    </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="194"/>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="194"/>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="194"/>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="194"/>
-    </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="194"/>
-    </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="194"/>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="194"/>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="194"/>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178" s="194"/>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="194"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="104"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="104"/>
+      <c r="G67" s="104"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="104"/>
+      <c r="J67" s="104"/>
+      <c r="K67" s="104"/>
+      <c r="L67" s="104"/>
+      <c r="M67" s="104"/>
+      <c r="N67" s="104"/>
+      <c r="O67" s="104"/>
+      <c r="P67" s="104"/>
+      <c r="Q67" s="104"/>
+      <c r="R67" s="104"/>
+      <c r="S67" s="104"/>
+      <c r="T67" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12881,20 +12982,15 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="Q10:S10"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data Entry Cell" error="Enter only numeric value !" promptTitle="Data Entry Cell" prompt="Enter only numeric value !" sqref="I13:K22 I30 O13:Q22 C13:E22">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data Entry Cell" error="Enter only numeric value !" promptTitle="Data Entry Cell" prompt="Enter only numeric value !" sqref="I13:K22 I30 O13:Q22 C13:E22" xr:uid="{0E56ADED-CB82-48F9-90A8-9E73AB11293F}">
       <formula1>-999999999</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.17" right="0.15" top="0.17" bottom="0.18" header="0.17" footer="0.17"/>
-  <pageSetup scale="74" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;LRC/AQE-027&amp;C&amp;N&amp;RREV0(1806)</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13142,15 +13238,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <WIPS xmlns="8f0a1e8c-63ac-4f09-bcd0-6ffd275b3343" xsi:nil="true"/>
@@ -13161,6 +13248,15 @@
     <Date_x0020_of_x0020_event xmlns="8f0a1e8c-63ac-4f09-bcd0-6ffd275b3343" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13183,14 +13279,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{939EFA0F-1A58-4C6B-868C-3FE18A422892}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39E5FEB9-6175-4166-AAA0-CC69804F8571}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13198,4 +13286,12 @@
     <ds:schemaRef ds:uri="8f0a1e8c-63ac-4f09-bcd0-6ffd275b3343"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{939EFA0F-1A58-4C6B-868C-3FE18A422892}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>